--- a/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2-周版本.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="465" windowWidth="33780" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="4275" yWindow="465" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="5-27周输出" sheetId="11" r:id="rId1"/>
     <sheet name="6-3周输出" sheetId="12" r:id="rId2"/>
     <sheet name="6-10周输出" sheetId="13" r:id="rId3"/>
     <sheet name="6-17周输出" sheetId="14" r:id="rId4"/>
-    <sheet name="模板" sheetId="8" r:id="rId5"/>
-    <sheet name="6-24周输出" sheetId="15" r:id="rId6"/>
+    <sheet name="6-24周输出" sheetId="15" r:id="rId5"/>
+    <sheet name="模板" sheetId="8" r:id="rId6"/>
     <sheet name="附录" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="328">
   <si>
     <t>类别</t>
   </si>
@@ -424,10 +424,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>伤害公式</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>服务器数据刷新</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -456,6 +452,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>宠物基础架构</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>核心战斗-伤害公式计算</t>
   </si>
   <si>
@@ -648,10 +648,26 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>day6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI—Camera更换</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>文生</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>day2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗代码熟悉，完善进程和战斗流程部分</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>宠物基础架构，主角属性，账号基础数据文档跟进</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -724,13 +740,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>策划、测试代码权限管理
- 1）策划是否可以直接查看代码？提交权限限制到资源和配置？--zz需要考虑一下，6月3日
- 2）提交内容要与任务关联，非任务相关或版本内内容禁止直接提交--除贴图、材质球（tga，mat，png）外其他需要有命名规范
- 2）测试只可以在分支提交代码？主干提交需要交给程序处理？--zz</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>道具系统服务端任务重新拆分</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -760,10 +769,6 @@
   </si>
   <si>
     <t>美术需求策划发任务</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他任务放在主任务下</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -889,7 +894,502 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>集火敌人ui显示</t>
+    <t>大招操作制作时间确认</t>
+    <rPh sb="0" eb="1">
+      <t>da'zhao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>que'ren</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="1">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>cheng</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效需求时间确认</t>
+    <rPh sb="0" eb="1">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>que'ren</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-344</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-345</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-341</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-343</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-怪物AI修改</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiu'gai</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-342</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>文生</t>
+    <rPh sb="0" eb="1">
+      <t>wen'sheng</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能-技能增加防御类型技能 伤害公式添加防御系数结算</t>
+  </si>
+  <si>
+    <t>对局-集火敌人UI提示</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji'huo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di'ren</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti'shi</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-304</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-346</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-347</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-353</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-352</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-350</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-349</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-348</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-354</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-313</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-311，MG-312</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-309，MG-310</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-308</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-301，MG-302</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-285</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-284</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-339</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-338</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-336</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-331</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-333</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-334</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-335</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-330</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-329</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-328</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-327</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-326</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-325</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-323</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-322</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-321</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-306</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-307</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-301，MG-303</t>
+  </si>
+  <si>
+    <t>demo验收后对局调整内容列表</t>
+  </si>
+  <si>
+    <t>xw</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划、测试代码权限管理
+ 1）策划是否可以直接查看代码？提交权限限制到资源和配置？--zz需要考虑一下，6月3日
+ 2）提交内容要与任务关联，非任务相关或版本内内容禁止直接提交--除贴图、材质球（tga，mat，png）外其他需要有命名规范
+ 2）测试只可以在分支提交代码？主干提交需要交给程序处理？--zz</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划、测试代码权限管理
+ 1）策划是否可以直接查看代码？提交权限限制到资源和配置？--zz需要考虑一下，6月3日</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <rPh sb="0" eb="1">
+      <t>guan'bi</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他任务放在主任务下，主任务是epic类型</t>
+    <rPh sb="11" eb="12">
+      <t>zhu'ren'wu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要，已排</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑2是否能增加美术需求--场景，哪天出需求</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月3日</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术3D外包制作只有3周时间有风险，可能需要4周</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源目录结构整理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw,ts</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <rPh sb="0" eb="1">
+      <t>wei'wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ß</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>过一下副本玩法，确认需要在本里程碑内添加的东西。参考文档：/gd/副本系统/主线副本规划.xlsx</t>
+    <rPh sb="0" eb="1">
+      <t>guo'yi'xia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan'fa</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ben</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>li'cheng'bei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>tian'jia</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dong'xi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>can'kao</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6晚提交</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招文档阻碍</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局bug未复查，程序修改代码结构阻碍</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序修改代码结构阻碍</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局文档（AI、UI、换宠、照妖镜、动画表现）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓宠、封妖文档</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具系统文档</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、兔桑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物基础架构测试</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角属性，账号基础数据</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害公式测试</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码框架修改后整体流程测试</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓宠、封妖测试用例修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系统测试用例修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗流程测试用例修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害公式测试用例修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局测试用例修改（AI、UI、换宠、照妖镜、动画表现、大招）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>roy体验修改后，是否有安排修改的时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无新需求</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>文生</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络基础模块</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码结构整理</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -897,31 +1397,104 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>怪物AI修改（玩家与npc分离，增加懒惰与性格属性，数据表拆分)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>day6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>zz</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>UI—Camera更换</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能增加防御类型技能 伤害公式添加防御系数结算</t>
+    <t>宠物数据同步</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz 小珍</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端任务</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端自主任务</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>文生</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai，照妖镜， 换宠，对局表现修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>文生zz</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具宝箱使用</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅帅</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗掉落</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具奖励和奖励组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>pb c#dll 编译（mac）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术量-怪物原画调整</t>
+  </si>
+  <si>
+    <t>美术风格-UI第六版</t>
+  </si>
+  <si>
+    <t>美术量-对局UI新需求</t>
+  </si>
+  <si>
+    <t xml:space="preserve">豆豆 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">孙帆 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">孙帆 豆豆 </t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1025,22 +1598,27 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1293,7 +1871,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1327,7 +1905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1402,20 +1980,91 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="72" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="72" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="72" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="84">
@@ -1504,27 +2153,7 @@
     <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1606,11 +2235,54 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1951,11 +2623,1749 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="127" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView zoomScale="127" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K60" sqref="K60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="38" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="38"/>
+    <col min="4" max="4" width="49.375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="38"/>
+    <col min="7" max="7" width="10.125" style="54"/>
+    <col min="8" max="16384" width="10.125" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="39"/>
+      <c r="B3" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="39"/>
+      <c r="C4" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="39"/>
+      <c r="C5" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="J5" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="43"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="39"/>
+      <c r="C6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="J6" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="39"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="H7" s="42"/>
+      <c r="J7" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="43"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="39"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="H8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="39"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="39"/>
+      <c r="B10" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="H10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="L10" s="43"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="39"/>
+      <c r="C11" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="H11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="L11" s="43"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="39"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="H12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="39"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="39"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="H14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="39"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="39"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="H16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="39"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="H17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="39"/>
+      <c r="C18" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="H18" s="42"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="39"/>
+      <c r="C19" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="39"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="39"/>
+      <c r="B21" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="H21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="39"/>
+      <c r="C22" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="H22" s="42"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="39"/>
+      <c r="C23" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="42"/>
+      <c r="G23" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="H23" s="42"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="39"/>
+      <c r="C24" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="42"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="39"/>
+      <c r="C25" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="39"/>
+      <c r="C26" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="46"/>
+      <c r="H26" s="42"/>
+      <c r="J26" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="39"/>
+      <c r="B27" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="G27" s="46"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="39"/>
+      <c r="C28" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="46"/>
+      <c r="H28" s="42"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="42"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="42"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="B30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" s="49"/>
+      <c r="C31" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="49"/>
+      <c r="C32" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="B33" s="49"/>
+      <c r="C33" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="G33" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="B34" s="49"/>
+      <c r="C34" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="K34" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="B35" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="L35" s="38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="C36" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="C37" s="50"/>
+      <c r="D37" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="H37" s="42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="50"/>
+      <c r="B38" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="H38" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="K38" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="M38" s="43"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="50"/>
+      <c r="C39" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="H39" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="M39" s="43"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="50"/>
+      <c r="C40" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="H40" s="42" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="H41" s="42"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="H42" s="42"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="47"/>
+      <c r="B43" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="H43" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="I43" s="38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="B44" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="G44" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="J44" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="47"/>
+      <c r="C45" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="J45" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="50"/>
+      <c r="C46" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="J46" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="50"/>
+      <c r="C47" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="H47" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="I47" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="M47" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="50"/>
+      <c r="B48" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="H48" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="I48" s="38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="50"/>
+      <c r="C49" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="H49" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="I49" s="38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="50"/>
+      <c r="C50" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="C51" s="46"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="H51" s="42"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="53"/>
+      <c r="H52" s="42"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="47"/>
+      <c r="B53" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="H53" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="I53" s="43"/>
+      <c r="L53" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="47"/>
+      <c r="C54" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="47"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="H55" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K55" s="43"/>
+      <c r="M55" s="43"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="47"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="G56" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="H56" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K56" s="43"/>
+      <c r="M56" s="43"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="C57" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G57" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="C58" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="F58" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="C59" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="C60" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="H60" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="57"/>
+    </row>
+    <row r="62" spans="1:13" ht="33">
+      <c r="A62" s="55"/>
+      <c r="B62" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="57"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="57"/>
+    </row>
+    <row r="63" spans="1:13" ht="33">
+      <c r="B63" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="57"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="57"/>
+      <c r="M63" s="38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="33">
+      <c r="A64" s="39"/>
+      <c r="B64" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="57"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="57"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="39"/>
+      <c r="B65" s="56"/>
+      <c r="F65" s="57"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="57"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="B66" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" s="57"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="57"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="B67" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="57"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="57"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="B68" s="56"/>
+      <c r="F68" s="57"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="57"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="B69" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="57"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="57"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="F70" s="57"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="57"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="B71" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" s="57"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="57"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="F72" s="57"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="57"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="B73" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73" s="57"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="57"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="F74" s="57"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="57"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="F75" s="57"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="57"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="B76" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F76" s="57"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="57"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="D77" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="F77" s="57"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="57"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="D78" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E78" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="F78" s="57"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="57"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="D79" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" s="57"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="57"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="D80" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="E80" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" s="57"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="57"/>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="D81" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" s="57"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="57"/>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="D82" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" s="57"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="57"/>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="F83" s="57"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="57"/>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="F84" s="57"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="57"/>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="F85" s="57"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="57"/>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F86" s="57"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="57"/>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="F87" s="57"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="58"/>
+    </row>
+    <row r="88" spans="2:11" ht="33">
+      <c r="B88" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D88" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="59"/>
+      <c r="F88" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="G88" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" s="61"/>
+      <c r="I88" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="J88" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="K88" s="59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89" s="68"/>
+      <c r="C89" s="69"/>
+      <c r="D89" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="69"/>
+      <c r="I89" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="J89" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="K89" s="69"/>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90" s="68"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="E90" s="69"/>
+      <c r="F90" s="69"/>
+      <c r="G90" s="70"/>
+      <c r="H90" s="69"/>
+      <c r="I90" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="J90" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="K90" s="69"/>
+    </row>
+    <row r="91" spans="2:11" ht="132">
+      <c r="B91" s="68"/>
+      <c r="C91" s="69"/>
+      <c r="D91" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="E91" s="69"/>
+      <c r="F91" s="69"/>
+      <c r="G91" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="H91" s="69"/>
+      <c r="I91" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="J91" s="69"/>
+      <c r="K91" s="69"/>
+    </row>
+    <row r="92" spans="2:11">
+      <c r="B92" s="68"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="H92" s="71"/>
+      <c r="I92" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="J92" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="K92" s="69"/>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="68"/>
+      <c r="C93" s="69"/>
+      <c r="D93" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="E93" s="71"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="72"/>
+      <c r="H93" s="71"/>
+      <c r="I93" s="69"/>
+      <c r="J93" s="69"/>
+      <c r="K93" s="69"/>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94" s="68"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="H94" s="71"/>
+      <c r="I94" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="J94" s="69"/>
+      <c r="K94" s="69"/>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" s="68"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E95" s="68"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="H95" s="68"/>
+      <c r="I95" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="J95" s="68"/>
+      <c r="K95" s="68"/>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" s="68"/>
+      <c r="C96" s="68"/>
+      <c r="D96" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="E96" s="68"/>
+      <c r="F96" s="68"/>
+      <c r="G96" s="68"/>
+      <c r="H96" s="68"/>
+      <c r="I96" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="J96" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="K96" s="68"/>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="68"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="68" t="s">
+        <v>263</v>
+      </c>
+      <c r="E97" s="68"/>
+      <c r="F97" s="68"/>
+      <c r="G97" s="68"/>
+      <c r="H97" s="68"/>
+      <c r="I97" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="J97" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="K97" s="68"/>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="68"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E98" s="68"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="68"/>
+      <c r="H98" s="68"/>
+      <c r="I98" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="J98" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="K98" s="68" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="E58:E61 D54:E56 D57:D60 A54:C61 A80:C83 D82 A62:XFD78 A79:D79 E79:XFD80 E82:XFD83 F81:XFD81 A84:XFD1048576 A45:F45 A38:XFD44 H45:XFD45 B7:B10 B1:B3 E1:E2 C1:D6 E5:E8 B12:B17 B20:B22 A1:A26 F1:XFD6 C7:XFD26 A27:XFD28 A36:A37 C36:XFD37 A31:XFD35 A29:A30 C29:XFD30 B30 A46:XFD53 G54:XFD61">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D80:D81">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54:F61">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B30</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="133" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
@@ -2029,1519 +4439,6 @@
     </row>
     <row r="3" spans="1:14" ht="17.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.25">
-      <c r="A4" s="3"/>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.25">
-      <c r="A5" s="3"/>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7"/>
-      <c r="K5" s="34"/>
-    </row>
-    <row r="6" spans="1:14" ht="17.25">
-      <c r="A6" s="3"/>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" ht="17.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-    </row>
-    <row r="8" spans="1:14" ht="17.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-    </row>
-    <row r="9" spans="1:14" ht="17.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-    </row>
-    <row r="10" spans="1:14" ht="17.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7"/>
-      <c r="J10" s="34"/>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.25">
-      <c r="A11" s="3"/>
-      <c r="C11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7"/>
-      <c r="J11" s="34"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="1:14" ht="17.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-    </row>
-    <row r="13" spans="1:14" ht="17.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-    </row>
-    <row r="14" spans="1:14" ht="17.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-    </row>
-    <row r="15" spans="1:14" ht="17.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-    </row>
-    <row r="16" spans="1:14" ht="17.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-    </row>
-    <row r="17" spans="1:11" ht="17.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="7"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-    </row>
-    <row r="18" spans="1:11" ht="17.25">
-      <c r="A18" s="3"/>
-      <c r="C18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" ht="17.25">
-      <c r="A19" s="3"/>
-      <c r="C19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" ht="17.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-    </row>
-    <row r="21" spans="1:11" ht="17.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="7"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-    </row>
-    <row r="22" spans="1:11" ht="17.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" ht="17.25">
-      <c r="A23" s="3"/>
-      <c r="C23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" ht="17.25">
-      <c r="A24" s="3"/>
-      <c r="C24" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" ht="17.25">
-      <c r="A25" s="3"/>
-      <c r="C25" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" ht="17.25">
-      <c r="A26" s="3"/>
-      <c r="C26" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" ht="17.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" ht="17.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" ht="17.25">
-      <c r="A29" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" ht="17.25">
-      <c r="B30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:11" ht="17.25">
-      <c r="B31" s="12"/>
-      <c r="C31" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:11" ht="17.25">
-      <c r="B32" s="12"/>
-      <c r="C32" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:13" ht="17.25">
-      <c r="B33" s="12"/>
-      <c r="C33" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:13" ht="17.25">
-      <c r="B34" s="12"/>
-      <c r="C34" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:13" ht="17.25">
-      <c r="B35" s="12"/>
-      <c r="C35" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:13" ht="17.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="7"/>
-      <c r="M36" s="34"/>
-    </row>
-    <row r="37" spans="1:13" ht="17.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="7"/>
-      <c r="M37" s="34"/>
-    </row>
-    <row r="38" spans="1:13" ht="17.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:13" ht="17.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="5"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:13" ht="17.25">
-      <c r="A40" s="14"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:13" ht="17.25">
-      <c r="A41" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:13" ht="17.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:13" ht="17.25">
-      <c r="B43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:13" ht="17.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="G44" s="18"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:13" ht="17.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G45" s="19"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:13" ht="17.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:13" ht="17.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:13" ht="17.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:13" ht="17.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:13" ht="17.25">
-      <c r="C50" s="10"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:13" ht="17.25">
-      <c r="A51" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:13" ht="17.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G52" s="23"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="34"/>
-    </row>
-    <row r="53" spans="1:13" ht="17.25">
-      <c r="A53" s="11"/>
-      <c r="C53" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G53" s="23"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:13" ht="17.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="7"/>
-      <c r="K54" s="34"/>
-      <c r="M54" s="34"/>
-    </row>
-    <row r="55" spans="1:13" ht="17.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G55" s="23"/>
-      <c r="H55" s="7"/>
-      <c r="K55" s="34"/>
-      <c r="M55" s="34"/>
-    </row>
-    <row r="56" spans="1:13" ht="17.25">
-      <c r="C56" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:13" ht="17.25">
-      <c r="C57" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:13" ht="17.25">
-      <c r="C58" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:13" ht="17.25">
-      <c r="C59" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:13" s="5" customFormat="1" ht="17.25">
-      <c r="A60" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-    </row>
-    <row r="61" spans="1:13" s="5" customFormat="1" ht="33">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="23"/>
-    </row>
-    <row r="62" spans="1:13" s="5" customFormat="1" ht="33">
-      <c r="B62" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="23"/>
-    </row>
-    <row r="63" spans="1:13" s="5" customFormat="1" ht="33">
-      <c r="A63" s="3"/>
-      <c r="B63" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="23"/>
-    </row>
-    <row r="64" spans="1:13" s="5" customFormat="1">
-      <c r="A64" s="3"/>
-      <c r="B64" s="26"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="23"/>
-    </row>
-    <row r="65" spans="2:9" s="5" customFormat="1">
-      <c r="B65" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="23"/>
-    </row>
-    <row r="66" spans="2:9" s="5" customFormat="1">
-      <c r="B66" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="23"/>
-    </row>
-    <row r="67" spans="2:9" s="5" customFormat="1">
-      <c r="B67" s="26"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="23"/>
-    </row>
-    <row r="68" spans="2:9" s="5" customFormat="1">
-      <c r="B68" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="23"/>
-    </row>
-    <row r="69" spans="2:9" s="5" customFormat="1">
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="23"/>
-    </row>
-    <row r="70" spans="2:9" s="5" customFormat="1">
-      <c r="B70" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="23"/>
-    </row>
-    <row r="71" spans="2:9" s="5" customFormat="1">
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="23"/>
-    </row>
-    <row r="72" spans="2:9" s="5" customFormat="1">
-      <c r="B72" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="23"/>
-    </row>
-    <row r="73" spans="2:9" s="5" customFormat="1">
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="23"/>
-    </row>
-    <row r="74" spans="2:9" s="5" customFormat="1">
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="23"/>
-    </row>
-    <row r="75" spans="2:9" s="5" customFormat="1">
-      <c r="B75" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="23"/>
-    </row>
-    <row r="76" spans="2:9" s="5" customFormat="1">
-      <c r="D76" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F76" s="23"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="23"/>
-    </row>
-    <row r="77" spans="2:9" s="5" customFormat="1">
-      <c r="D77" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F77" s="23"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="23"/>
-    </row>
-    <row r="78" spans="2:9" s="5" customFormat="1">
-      <c r="D78" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F78" s="23"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="23"/>
-    </row>
-    <row r="79" spans="2:9" s="5" customFormat="1">
-      <c r="D79" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F79" s="23"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="23"/>
-    </row>
-    <row r="80" spans="2:9" s="5" customFormat="1">
-      <c r="D80" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F80" s="23"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="23"/>
-    </row>
-    <row r="81" spans="2:11" s="5" customFormat="1">
-      <c r="D81" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="23"/>
-    </row>
-    <row r="82" spans="2:11" s="5" customFormat="1">
-      <c r="F82" s="23"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="23"/>
-    </row>
-    <row r="83" spans="2:11" s="5" customFormat="1">
-      <c r="F83" s="23"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="23"/>
-    </row>
-    <row r="84" spans="2:11" s="5" customFormat="1">
-      <c r="F84" s="23"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="23"/>
-    </row>
-    <row r="85" spans="2:11" s="5" customFormat="1">
-      <c r="B85" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="23"/>
-    </row>
-    <row r="86" spans="2:11" s="5" customFormat="1">
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="36"/>
-    </row>
-    <row r="87" spans="2:11" s="5" customFormat="1" ht="33">
-      <c r="B87" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C87" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D87" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E87" s="28"/>
-      <c r="F87" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G87" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="H87" s="30"/>
-      <c r="I87" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="J87" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="K87" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11">
-      <c r="B88" s="31"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="J88" s="32"/>
-      <c r="K88" s="32"/>
-    </row>
-    <row r="89" spans="2:11">
-      <c r="B89" s="31"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="J89" s="32"/>
-      <c r="K89" s="32"/>
-    </row>
-    <row r="90" spans="2:11" ht="99">
-      <c r="B90" s="31"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="J90" s="32"/>
-      <c r="K90" s="32"/>
-    </row>
-    <row r="91" spans="2:11">
-      <c r="B91" s="31"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="H91" s="38"/>
-      <c r="I91" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="J91" s="32"/>
-      <c r="K91" s="32"/>
-    </row>
-    <row r="92" spans="2:11">
-      <c r="B92" s="31"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="32"/>
-      <c r="J92" s="32"/>
-      <c r="K92" s="32"/>
-    </row>
-    <row r="93" spans="2:11">
-      <c r="B93" s="31"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="H93" s="38"/>
-      <c r="I93" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="J93" s="32"/>
-      <c r="K93" s="32"/>
-    </row>
-    <row r="94" spans="2:11">
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="H94" s="31"/>
-      <c r="I94" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="J94" s="31"/>
-      <c r="K94" s="31"/>
-    </row>
-    <row r="95" spans="2:11">
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="J95" s="31"/>
-      <c r="K95" s="31"/>
-    </row>
-    <row r="96" spans="2:11">
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="J96" s="31"/>
-      <c r="K96" s="31"/>
-    </row>
-    <row r="97" spans="2:11">
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="J97" s="31"/>
-      <c r="K97" s="31"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="E57:E60 D53:E55 D56:D59 A53:C60 A79:C82 D81 G53:XFD60 A61:XFD77 A78:D78 E78:XFD79 E81:XFD82 F80:XFD80 A83:XFD1048576 B7:B10 B1:B3 E1:E2 C1:D6 F1:XFD6 E5:E8 B12:B17 A27:XFD52 B20:B22 A1:A26 C7:XFD26">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D79:D80">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53:F60">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="4"/>
-    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="17.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="17.25">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" ht="17.25">
-      <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
@@ -3632,399 +4529,568 @@
     </row>
     <row r="10" spans="1:14" ht="17.25">
       <c r="B10" s="12" t="s">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+        <v>303</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>319</v>
+      </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="17.25">
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="5"/>
+        <v>303</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="17.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
+      <c r="B12" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>320</v>
+      </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="17.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="5"/>
-      <c r="G13" s="16"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="D13" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="H13" s="7"/>
-      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="17.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="C14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="H14" s="7"/>
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:14" ht="17.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="5"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="5"/>
+        <v>303</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G15" s="16"/>
       <c r="H15" s="7"/>
+      <c r="M15" s="34"/>
     </row>
     <row r="16" spans="1:14" ht="17.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" s="16"/>
       <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" ht="17.25">
+      <c r="M16" s="34"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.25">
       <c r="A17" s="14"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:13" ht="17.25">
-      <c r="A18" s="11" t="s">
-        <v>24</v>
-      </c>
+    <row r="18" spans="1:8" ht="17.25">
+      <c r="A18" s="14"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:13" ht="17.25">
-      <c r="B19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+    <row r="19" spans="1:8" ht="17.25">
+      <c r="A19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:13" ht="17.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="5"/>
+    <row r="20" spans="1:8" ht="17.25">
+      <c r="B20" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="D20" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>281</v>
+      </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:13" ht="17.25">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:8" ht="17.25">
+      <c r="A21" s="11"/>
       <c r="B21" s="5"/>
       <c r="C21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="17"/>
+      <c r="D21" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>281</v>
+      </c>
       <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:13" ht="17.25">
+    <row r="22" spans="1:8" ht="17.25">
       <c r="A22" s="14"/>
       <c r="B22" s="5"/>
       <c r="C22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>282</v>
+      </c>
       <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="17.25">
-      <c r="A23" s="11"/>
+    <row r="23" spans="1:8" ht="17.25">
+      <c r="A23" s="14"/>
       <c r="B23" s="5"/>
       <c r="C23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="17.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="17.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="17.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="17.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="17.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="17.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" ht="17.25">
-      <c r="C24" s="10"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:13" ht="17.25">
-      <c r="A25" s="11" t="s">
+      <c r="D32" s="5"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" ht="17.25">
+      <c r="C33" s="10"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="17.25">
+      <c r="A34" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="34"/>
-    </row>
-    <row r="27" spans="1:13" ht="17.25">
-      <c r="A27" s="11"/>
-      <c r="C27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="7"/>
-      <c r="K28" s="34"/>
-      <c r="M28" s="34"/>
-    </row>
-    <row r="29" spans="1:13" ht="17.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="7"/>
-      <c r="K29" s="34"/>
-      <c r="M29" s="34"/>
-    </row>
-    <row r="30" spans="1:13" ht="17.25">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" s="5" customFormat="1" ht="17.25">
-      <c r="A31" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" s="5" customFormat="1" ht="33">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="23"/>
-    </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" ht="33">
-      <c r="B33" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="23"/>
-    </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" ht="33">
-      <c r="A34" s="3"/>
-      <c r="B34" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="23"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="23"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="23"/>
-    </row>
-    <row r="35" spans="1:9" s="5" customFormat="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="26"/>
-      <c r="F35" s="23"/>
+    </row>
+    <row r="35" spans="1:13" ht="17.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G35" s="23"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="23"/>
-    </row>
-    <row r="36" spans="1:9" s="5" customFormat="1">
-      <c r="B36" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="23"/>
+      <c r="I35" s="34"/>
+    </row>
+    <row r="36" spans="1:13" ht="17.25">
+      <c r="A36" s="11"/>
+      <c r="C36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="G36" s="23"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="23"/>
-    </row>
-    <row r="37" spans="1:9" s="5" customFormat="1">
-      <c r="B37" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
+    </row>
+    <row r="37" spans="1:13" ht="17.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="5"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="1:9" s="5" customFormat="1">
-      <c r="B38" s="26"/>
-      <c r="F38" s="23"/>
+      <c r="K37" s="34"/>
+      <c r="M37" s="34"/>
+    </row>
+    <row r="38" spans="1:13" ht="17.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="23"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="1:9" s="5" customFormat="1">
-      <c r="B39" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
+      <c r="K38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+    <row r="39" spans="1:13" ht="17.25">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="1:9" s="5" customFormat="1">
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
+    </row>
+    <row r="40" spans="1:13" s="5" customFormat="1" ht="17.25">
+      <c r="A40" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" spans="1:9" s="5" customFormat="1">
-      <c r="B41" s="21" t="s">
-        <v>36</v>
+      <c r="I40" s="35"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" s="5" customFormat="1" ht="33">
+      <c r="A41" s="25"/>
+      <c r="B41" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
       <c r="H41" s="7"/>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" s="5" customFormat="1">
+    <row r="42" spans="1:13" s="5" customFormat="1" ht="33">
+      <c r="B42" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="7"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" s="5" customFormat="1">
-      <c r="B43" s="5" t="s">
-        <v>37</v>
+    <row r="43" spans="1:13" s="5" customFormat="1" ht="33">
+      <c r="A43" s="3"/>
+      <c r="B43" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="7"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" s="5" customFormat="1">
+    <row r="44" spans="1:13" s="5" customFormat="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="26"/>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
       <c r="H44" s="7"/>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:9" s="5" customFormat="1">
+    <row r="45" spans="1:13" s="5" customFormat="1">
+      <c r="B45" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="7"/>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" s="5" customFormat="1">
-      <c r="B46" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>206</v>
+    <row r="46" spans="1:13" s="5" customFormat="1">
+      <c r="B46" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
       <c r="H46" s="7"/>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:9" s="5" customFormat="1">
-      <c r="D47" s="5" t="s">
-        <v>207</v>
-      </c>
+    <row r="47" spans="1:13" s="5" customFormat="1">
+      <c r="B47" s="26"/>
       <c r="F47" s="23"/>
-      <c r="G47" s="27"/>
+      <c r="G47" s="23"/>
       <c r="H47" s="7"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" s="5" customFormat="1">
+    <row r="48" spans="1:13" s="5" customFormat="1">
+      <c r="B48" s="26" t="s">
+        <v>35</v>
+      </c>
       <c r="F48" s="23"/>
-      <c r="G48" s="27"/>
+      <c r="G48" s="23"/>
       <c r="H48" s="7"/>
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="2:11" s="5" customFormat="1">
       <c r="F49" s="23"/>
-      <c r="G49" s="27"/>
+      <c r="G49" s="23"/>
       <c r="H49" s="7"/>
       <c r="I49" s="23"/>
     </row>
     <row r="50" spans="2:11" s="5" customFormat="1">
-      <c r="B50" s="5" t="s">
-        <v>39</v>
+      <c r="B50" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
@@ -4035,52 +5101,213 @@
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="36"/>
-    </row>
-    <row r="52" spans="2:11" s="5" customFormat="1" ht="33">
-      <c r="B52" s="28" t="s">
+      <c r="I51" s="23"/>
+    </row>
+    <row r="52" spans="2:11" s="5" customFormat="1">
+      <c r="B52" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="23"/>
+    </row>
+    <row r="53" spans="2:11" s="5" customFormat="1">
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="23"/>
+    </row>
+    <row r="54" spans="2:11" s="5" customFormat="1">
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="23"/>
+    </row>
+    <row r="55" spans="2:11" s="5" customFormat="1">
+      <c r="B55" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="23"/>
+    </row>
+    <row r="56" spans="2:11" s="5" customFormat="1">
+      <c r="D56" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F56" s="23"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="23"/>
+    </row>
+    <row r="57" spans="2:11" s="5" customFormat="1">
+      <c r="D57" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F57" s="23"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="23"/>
+    </row>
+    <row r="58" spans="2:11" s="5" customFormat="1">
+      <c r="D58" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F58" s="23"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="23"/>
+    </row>
+    <row r="59" spans="2:11" s="5" customFormat="1">
+      <c r="D59" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F59" s="23"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="23"/>
+    </row>
+    <row r="60" spans="2:11" s="5" customFormat="1">
+      <c r="D60" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F60" s="23"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="23"/>
+    </row>
+    <row r="61" spans="2:11" s="5" customFormat="1">
+      <c r="B61" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="23"/>
+    </row>
+    <row r="62" spans="2:11" s="5" customFormat="1">
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="36"/>
+    </row>
+    <row r="63" spans="2:11" s="5" customFormat="1" ht="33">
+      <c r="B63" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C63" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D63" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="28"/>
-      <c r="F52" s="29" t="s">
+      <c r="E63" s="28"/>
+      <c r="F63" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G52" s="29" t="s">
+      <c r="G63" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="30"/>
-      <c r="I52" s="37" t="s">
+      <c r="H63" s="30"/>
+      <c r="I63" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="J52" s="28" t="s">
+      <c r="J63" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="K52" s="28" t="s">
+      <c r="K63" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="31"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
+    <row r="64" spans="2:11">
+      <c r="B64" s="31"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+    </row>
+    <row r="65" spans="2:11" ht="49.5">
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="73" t="s">
+        <v>268</v>
+      </c>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" s="73"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="73" t="s">
+        <v>266</v>
+      </c>
+      <c r="H67" s="73"/>
+      <c r="I67" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="73" t="s">
+        <v>267</v>
+      </c>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4092,25 +5319,25 @@
           <x14:formula1>
             <xm:f>附录!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H30 H69:H1048576</xm:sqref>
+          <xm:sqref>H1:H38 H79:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C30 C69:C1048576</xm:sqref>
+          <xm:sqref>C79:C1048576 C1:C38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$I$3:$I$17</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F30</xm:sqref>
+          <xm:sqref>F1:F38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$E$3:$E$24</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B30 B69:B1048576</xm:sqref>
+          <xm:sqref>B1:B38 B79:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4119,7 +5346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4729,7 +5956,7 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4768,1310 +5995,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="4"/>
-    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="17.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="17.25">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" ht="17.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7"/>
-      <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7"/>
-      <c r="J5" s="34"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="1:14" ht="17.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
-      <c r="J6" s="34"/>
-      <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" ht="17.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-    </row>
-    <row r="8" spans="1:14" ht="17.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" ht="17.25">
-      <c r="A9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="17.25">
-      <c r="B10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="5"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" ht="17.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="17.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="5"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="7"/>
-      <c r="M13" s="34"/>
-    </row>
-    <row r="14" spans="1:14" ht="17.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="5"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="7"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="15" spans="1:14" ht="17.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="5"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="17.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="5"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" ht="17.25">
-      <c r="A17" s="14"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" ht="17.25">
-      <c r="A18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" ht="17.25">
-      <c r="B19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" ht="17.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" ht="17.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" ht="17.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" ht="17.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" ht="17.25">
-      <c r="C24" s="10"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:13" ht="17.25">
-      <c r="A25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="34"/>
-    </row>
-    <row r="27" spans="1:13" ht="17.25">
-      <c r="A27" s="11"/>
-      <c r="C27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="7"/>
-      <c r="K28" s="34"/>
-      <c r="M28" s="34"/>
-    </row>
-    <row r="29" spans="1:13" ht="17.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="7"/>
-      <c r="K29" s="34"/>
-      <c r="M29" s="34"/>
-    </row>
-    <row r="30" spans="1:13" ht="17.25">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" s="5" customFormat="1" ht="17.25">
-      <c r="A31" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" s="5" customFormat="1" ht="33">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="23"/>
-    </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" ht="33">
-      <c r="B33" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="23"/>
-    </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" ht="33">
-      <c r="A34" s="3"/>
-      <c r="B34" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="23"/>
-    </row>
-    <row r="35" spans="1:9" s="5" customFormat="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="26"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="23"/>
-    </row>
-    <row r="36" spans="1:9" s="5" customFormat="1">
-      <c r="B36" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="23"/>
-    </row>
-    <row r="37" spans="1:9" s="5" customFormat="1">
-      <c r="B37" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="1:9" s="5" customFormat="1">
-      <c r="B38" s="26"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="1:9" s="5" customFormat="1">
-      <c r="B39" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="1:9" s="5" customFormat="1">
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" spans="1:9" s="5" customFormat="1">
-      <c r="B41" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="1:9" s="5" customFormat="1">
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="23"/>
-    </row>
-    <row r="43" spans="1:9" s="5" customFormat="1">
-      <c r="B43" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="23"/>
-    </row>
-    <row r="44" spans="1:9" s="5" customFormat="1">
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="23"/>
-    </row>
-    <row r="45" spans="1:9" s="5" customFormat="1">
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="23"/>
-    </row>
-    <row r="46" spans="1:9" s="5" customFormat="1">
-      <c r="B46" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="23"/>
-    </row>
-    <row r="47" spans="1:9" s="5" customFormat="1">
-      <c r="F47" s="23"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="23"/>
-    </row>
-    <row r="48" spans="1:9" s="5" customFormat="1">
-      <c r="F48" s="23"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="23"/>
-    </row>
-    <row r="49" spans="2:11" s="5" customFormat="1">
-      <c r="F49" s="23"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="23"/>
-    </row>
-    <row r="50" spans="2:11" s="5" customFormat="1">
-      <c r="B50" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="23"/>
-    </row>
-    <row r="51" spans="2:11" s="5" customFormat="1">
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="36"/>
-    </row>
-    <row r="52" spans="2:11" s="5" customFormat="1" ht="33">
-      <c r="B52" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" s="28"/>
-      <c r="F52" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G52" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="H52" s="30"/>
-      <c r="I52" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="J52" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="K52" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="31"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$G$3:$G$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>H1:H30 H69:H1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$A$3:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1:C30 C69:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$I$3:$I$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F30</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$E$3:$E$24</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B30 B69:B1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="4"/>
-    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="17.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="17.25">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" ht="17.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7"/>
-      <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7"/>
-      <c r="J5" s="34"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="1:14" ht="17.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
-      <c r="J6" s="34"/>
-      <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" ht="17.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-    </row>
-    <row r="8" spans="1:14" ht="17.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" ht="17.25">
-      <c r="A9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="17.25">
-      <c r="B10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="5"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" ht="17.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="17.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="5"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="7"/>
-      <c r="M13" s="34"/>
-    </row>
-    <row r="14" spans="1:14" ht="17.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="5"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="7"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="15" spans="1:14" ht="17.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="5"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="17.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="5"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" ht="17.25">
-      <c r="A17" s="14"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" ht="17.25">
-      <c r="A18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" ht="17.25">
-      <c r="B19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" ht="17.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" ht="17.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" ht="17.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" ht="17.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" ht="17.25">
-      <c r="C24" s="10"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:13" ht="17.25">
-      <c r="A25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="34"/>
-    </row>
-    <row r="27" spans="1:13" ht="17.25">
-      <c r="A27" s="11"/>
-      <c r="C27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="7"/>
-      <c r="K28" s="34"/>
-      <c r="M28" s="34"/>
-    </row>
-    <row r="29" spans="1:13" ht="17.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="7"/>
-      <c r="K29" s="34"/>
-      <c r="M29" s="34"/>
-    </row>
-    <row r="30" spans="1:13" ht="17.25">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" s="5" customFormat="1" ht="17.25">
-      <c r="A31" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" s="5" customFormat="1" ht="33">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="23"/>
-    </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" ht="33">
-      <c r="B33" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="23"/>
-    </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" ht="33">
-      <c r="A34" s="3"/>
-      <c r="B34" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="23"/>
-    </row>
-    <row r="35" spans="1:9" s="5" customFormat="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="26"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="23"/>
-    </row>
-    <row r="36" spans="1:9" s="5" customFormat="1">
-      <c r="B36" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="23"/>
-    </row>
-    <row r="37" spans="1:9" s="5" customFormat="1">
-      <c r="B37" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="1:9" s="5" customFormat="1">
-      <c r="B38" s="26"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="1:9" s="5" customFormat="1">
-      <c r="B39" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="1:9" s="5" customFormat="1">
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" spans="1:9" s="5" customFormat="1">
-      <c r="B41" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="1:9" s="5" customFormat="1">
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="23"/>
-    </row>
-    <row r="43" spans="1:9" s="5" customFormat="1">
-      <c r="B43" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="23"/>
-    </row>
-    <row r="44" spans="1:9" s="5" customFormat="1">
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="23"/>
-    </row>
-    <row r="45" spans="1:9" s="5" customFormat="1">
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="23"/>
-    </row>
-    <row r="46" spans="1:9" s="5" customFormat="1">
-      <c r="B46" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="23"/>
-    </row>
-    <row r="47" spans="1:9" s="5" customFormat="1">
-      <c r="F47" s="23"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="23"/>
-    </row>
-    <row r="48" spans="1:9" s="5" customFormat="1">
-      <c r="F48" s="23"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="23"/>
-    </row>
-    <row r="49" spans="2:11" s="5" customFormat="1">
-      <c r="F49" s="23"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="23"/>
-    </row>
-    <row r="50" spans="2:11" s="5" customFormat="1">
-      <c r="B50" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="23"/>
-    </row>
-    <row r="51" spans="2:11" s="5" customFormat="1">
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="36"/>
-    </row>
-    <row r="52" spans="2:11" s="5" customFormat="1" ht="33">
-      <c r="B52" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" s="28"/>
-      <c r="F52" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G52" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="H52" s="30"/>
-      <c r="I52" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="J52" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="K52" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="31"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$E$3:$E$24</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B30 B69:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$I$3:$I$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F30</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$A$3:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1:C30 C69:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$G$3:$G$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>H69:H1048576 H1:H30</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
@@ -6715,8 +6643,1307 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="4"/>
+    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="J5" s="34"/>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="1:14" ht="17.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="J6" s="34"/>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" ht="17.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" ht="17.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="17.25">
+      <c r="A9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.25">
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" ht="17.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="5"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="17.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="17.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="7"/>
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:14" ht="17.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="7"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="1:14" ht="17.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="5"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="17.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="5"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" ht="17.25">
+      <c r="A17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" ht="17.25">
+      <c r="A18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="17.25">
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" ht="17.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" ht="17.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" ht="17.25">
+      <c r="C24" s="10"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" ht="17.25">
+      <c r="A25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:13" ht="17.25">
+      <c r="A27" s="11"/>
+      <c r="C27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="7"/>
+      <c r="K28" s="34"/>
+      <c r="M28" s="34"/>
+    </row>
+    <row r="29" spans="1:13" ht="17.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="7"/>
+      <c r="K29" s="34"/>
+      <c r="M29" s="34"/>
+    </row>
+    <row r="30" spans="1:13" ht="17.25">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" s="5" customFormat="1" ht="17.25">
+      <c r="A31" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" s="5" customFormat="1" ht="33">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1" ht="33">
+      <c r="B33" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1" ht="33">
+      <c r="A34" s="3"/>
+      <c r="B34" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="26"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1">
+      <c r="B36" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1">
+      <c r="B37" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="23"/>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1">
+      <c r="B38" s="26"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1">
+      <c r="B39" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1">
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1">
+      <c r="B41" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1">
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1">
+      <c r="B43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1">
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1">
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1">
+      <c r="B46" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="23"/>
+    </row>
+    <row r="47" spans="1:9" s="5" customFormat="1">
+      <c r="F47" s="23"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="23"/>
+    </row>
+    <row r="48" spans="1:9" s="5" customFormat="1">
+      <c r="F48" s="23"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="2:11" s="5" customFormat="1">
+      <c r="F49" s="23"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="2:11" s="5" customFormat="1">
+      <c r="B50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="2:11" s="5" customFormat="1">
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="36"/>
+    </row>
+    <row r="52" spans="2:11" s="5" customFormat="1" ht="33">
+      <c r="B52" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="28"/>
+      <c r="F52" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="30"/>
+      <c r="I52" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J52" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K52" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H30 H69:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C30 C69:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$I$3:$I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B30 B69:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="4"/>
+    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="J5" s="34"/>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="1:14" ht="17.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="J6" s="34"/>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" ht="17.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" ht="17.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="17.25">
+      <c r="A9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.25">
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" ht="17.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="5"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="17.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="17.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="7"/>
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:14" ht="17.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="7"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="1:14" ht="17.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="5"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="17.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="5"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" ht="17.25">
+      <c r="A17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" ht="17.25">
+      <c r="A18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="17.25">
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" ht="17.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" ht="17.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" ht="17.25">
+      <c r="C24" s="10"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" ht="17.25">
+      <c r="A25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:13" ht="17.25">
+      <c r="A27" s="11"/>
+      <c r="C27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="7"/>
+      <c r="K28" s="34"/>
+      <c r="M28" s="34"/>
+    </row>
+    <row r="29" spans="1:13" ht="17.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="7"/>
+      <c r="K29" s="34"/>
+      <c r="M29" s="34"/>
+    </row>
+    <row r="30" spans="1:13" ht="17.25">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" s="5" customFormat="1" ht="17.25">
+      <c r="A31" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" s="5" customFormat="1" ht="33">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1" ht="33">
+      <c r="B33" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1" ht="33">
+      <c r="A34" s="3"/>
+      <c r="B34" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="26"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1">
+      <c r="B36" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1">
+      <c r="B37" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="23"/>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1">
+      <c r="B38" s="26"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1">
+      <c r="B39" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1">
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1">
+      <c r="B41" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1">
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1">
+      <c r="B43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1">
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1">
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1">
+      <c r="B46" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="23"/>
+    </row>
+    <row r="47" spans="1:9" s="5" customFormat="1">
+      <c r="F47" s="23"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="23"/>
+    </row>
+    <row r="48" spans="1:9" s="5" customFormat="1">
+      <c r="F48" s="23"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="2:11" s="5" customFormat="1">
+      <c r="F49" s="23"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="2:11" s="5" customFormat="1">
+      <c r="B50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="2:11" s="5" customFormat="1">
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="36"/>
+    </row>
+    <row r="52" spans="2:11" s="5" customFormat="1" ht="33">
+      <c r="B52" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="28"/>
+      <c r="F52" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="30"/>
+      <c r="I52" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J52" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K52" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B30 B69:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$I$3:$I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C30 C69:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H69:H1048576 H1:H30</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="165" zoomScaleNormal="265" zoomScalePageLayoutView="265" workbookViewId="0">
@@ -6987,7 +8214,7 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C26 E2:E24 G2:G5 I1:I25">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2-周版本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="465" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5-27周输出" sheetId="11" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="模板" sheetId="8" r:id="rId6"/>
     <sheet name="附录" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="471">
   <si>
     <t>类别</t>
   </si>
@@ -812,10 +812,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>产品原型制作-功能及内容（功能主要副本解谜方面，内容主要活动层面，活动内容，活动基础架构，各个系统内部经济模板）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>程序本周输出</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -930,22 +926,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>特效需求时间确认</t>
-    <rPh sb="0" eb="1">
-      <t>te'xiao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi'jian</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>que'ren</t>
-    </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>MG-344</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1158,11 +1138,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>策划、测试代码权限管理
- 1）策划是否可以直接查看代码？提交权限限制到资源和配置？--zz需要考虑一下，6月3日</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>关闭</t>
     <rPh sb="0" eb="1">
       <t>guan'bi</t>
@@ -1197,10 +1172,6 @@
   </si>
   <si>
     <t>里程碑2是否能增加美术需求--场景，哪天出需求</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月3日</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1293,10 +1264,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>对局文档（AI、UI、换宠、照妖镜、动画表现）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>抓宠、封妖文档</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1389,10 +1356,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>代码结构整理</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>必须</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1475,9 +1438,6 @@
     <t>美术风格-UI第六版</t>
   </si>
   <si>
-    <t>美术量-对局UI新需求</t>
-  </si>
-  <si>
     <t xml:space="preserve">豆豆 </t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1487,6 +1447,654 @@
   </si>
   <si>
     <t xml:space="preserve">孙帆 豆豆 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术需求</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物-原画boss*1</t>
+  </si>
+  <si>
+    <t>场景-原画*1套</t>
+  </si>
+  <si>
+    <t>封文档</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术制作规范</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交Qc</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统功能（包含对话配置方式）</t>
+  </si>
+  <si>
+    <t>胖子</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具系统-基础框架，包括装备，包括货币，消耗道具（宝箱、钥匙，体力，双倍等）</t>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择界面</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品原型制作-功能及内容（功能主要副本解谜方面，内容主要活动层面，活动内容，活动基础架构，各个系统内部经济模板）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品原型制作-功能及内容（功能主要副本解谜方面，内容主要活动层面，活动内容，活动基础架构，各个系统内部经济模板）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划自主任务</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw 星</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队克制设计、团队数值模型搭建（技能价值考虑，被动技能价值，针对不同玩法，尤其考虑pvp赛季循环设计）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐音效unity配置方法研究</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招逻辑文档</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方时间：</t>
+    <rPh sb="0" eb="1">
+      <t>san'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能-大招操作*2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗-换宠</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗-照妖镜</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局，技能动画表现</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓宠、封妖</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具系统</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xi't</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-照妖镜</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-基础逻辑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局掉落表现</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能-AI</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗-换宠、照妖镜、UI、对局，技能动画表现</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能-大招*2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day3下午</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day3下午</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能-AI</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day3上午</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day3下午</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名规范，目录结构，资源存放规则，（依赖兔桑day2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物-动作&amp;施法特效*14（规范会变更，提前沟通）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用特效需求</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术外包需求规范</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪动作&amp;特效</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景需求</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss需求</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debug-伤害公式，宠物数据</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能文档-AI</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局文档（UI、换宠、照妖镜、动画表现）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档分析</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能-大招</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录结构整理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主任务</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug筛选（zz，xw）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术量-对局UI新需求（buff，集火标记等）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品原型</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品原型-收集双周会想问的问题</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方后任务拆分，时间、内容清单给MT</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>木木</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周三方后</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用特效需求时间确认</t>
+    <rPh sb="2" eb="3">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>que'ren</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前无法预估</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划、测试代码权限管理
+ 1）策划是否可以直接查看代码？提交权限限制到资源和配置？--策划可以修改的代码放到单独的文件夹</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月3日</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周策划筛选0.7需要的副本玩法</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月10日</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7版本未实现的玩法功能拆分</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能逻辑广播</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统广播</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局、副本规则广播</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2版本副本设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术制作规范回归（需求+外包、day2~3跟胖子沟通）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-306</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-339</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-357</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-358</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-359</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-337</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-137 MG-138</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-364</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-365</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-370</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-374</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-360</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-363</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-366</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-369</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-371</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-362 MG-368</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-373</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-361</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-367</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-381</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-384</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-385</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-386</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-387</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额</t>
+    <rPh sb="0" eb="1">
+      <t>chao'e</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐音效基础配置模板设置</t>
+    <rPh sb="0" eb="1">
+      <t>yin'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mo'ban</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>she'zhi</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <rPh sb="0" eb="1">
+      <t>pang'zi</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-388</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-389</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-390</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-391</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-392</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-393</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-394</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-380</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-377</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-378</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-379</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-375 MG-376</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本配置确认任务状态：程序需要调整配置，本里程碑内做完，下周排期</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端大小问题测试待排期</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw，zz，ts</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界观故事和副本规划有冲突，需要重新考虑（改故事或加场景），待排期</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM提示各系统文档中按标准设计回归，具体执行时间确认</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1494,7 +2102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1620,6 +2228,22 @@
       <name val="Microsoft YaHei"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1653,7 +2277,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="84">
+  <cellStyleXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1904,8 +2528,86 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1983,91 +2685,116 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="72" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="72" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="84">
+  <cellStyles count="110">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 10 2 2 2" xfId="1"/>
     <cellStyle name="常规 12" xfId="2"/>
@@ -2115,6 +2842,19 @@
     <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
@@ -2152,8 +2892,71 @@
     <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2182,6 +2985,16 @@
         <patternFill>
           <fgColor indexed="10"/>
           <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2626,42 +3439,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView zoomScale="127" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K60" sqref="K60"/>
+      <selection pane="bottomRight" activeCell="J91" sqref="D91:J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="38" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="38"/>
-    <col min="4" max="4" width="49.375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="38"/>
-    <col min="7" max="7" width="10.125" style="54"/>
-    <col min="8" max="16384" width="10.125" style="38"/>
+    <col min="1" max="1" width="13.125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="46"/>
+    <col min="4" max="4" width="49.375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="46" customWidth="1"/>
+    <col min="6" max="16384" width="10.125" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="40" t="s">
@@ -2687,1664 +3498,1658 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="39"/>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="60"/>
+      <c r="C4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="60"/>
+      <c r="C5" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="K5" s="47"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="60"/>
+      <c r="C6" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" s="47"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="44"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="60"/>
+      <c r="B10" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="47"/>
+      <c r="L10" s="47"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="60"/>
+      <c r="C11" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11" s="47"/>
+      <c r="L11" s="47"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="60"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="60"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="60"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="60"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="60"/>
+      <c r="C18" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="60"/>
+      <c r="C19" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="43"/>
+      <c r="H19" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="60"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="44"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="60"/>
+      <c r="B21" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="60"/>
+      <c r="C22" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="60"/>
+      <c r="C23" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="60"/>
+      <c r="C24" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="44"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="46" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="60"/>
+      <c r="C25" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="60"/>
+      <c r="C26" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="60"/>
+      <c r="B27" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="60"/>
+      <c r="C28" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="43"/>
+      <c r="H28" s="46" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="B30" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="K30" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" s="45"/>
+      <c r="C31" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="45"/>
+      <c r="C32" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="B33" s="45"/>
+      <c r="C33" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="G33" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="B34" s="45"/>
+      <c r="C34" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="K34" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="B35" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="L35" s="46" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="C36" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="I36" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="C37" s="66"/>
+      <c r="D37" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="F37" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="H37" s="44" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="66"/>
+      <c r="B38" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="H38" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="K38" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="M38" s="47"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="66"/>
+      <c r="C39" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="M39" s="47"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="66"/>
+      <c r="C40" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="H40" s="44" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="H41" s="44"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="H42" s="44"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="64"/>
+      <c r="B43" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="I43" s="46" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="B44" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="G44" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J44" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="64"/>
+      <c r="C45" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43" t="s">
+      <c r="H45" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="39"/>
-      <c r="C4" s="38" t="s">
+      <c r="J45" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="66"/>
+      <c r="C46" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="38" t="s">
+      <c r="D46" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="H46" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J46" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="66"/>
+      <c r="C47" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="H47" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="I47" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="M47" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="66"/>
+      <c r="B48" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="H48" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="I48" s="46" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="66"/>
+      <c r="C49" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="I49" s="46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="66"/>
+      <c r="C50" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="C51" s="43"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="H51" s="44"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="69"/>
+      <c r="H52" s="44"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="64"/>
+      <c r="B53" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="H53" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="I53" s="47"/>
+      <c r="L53" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="64"/>
+      <c r="C54" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="H54" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="64"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="F55" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="H55" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="K55" s="47"/>
+      <c r="M55" s="47"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="64"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="G56" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="H56" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="K56" s="47"/>
+      <c r="M56" s="47"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="C57" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43" t="s">
+      <c r="G57" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="H57" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="39"/>
-      <c r="C5" s="38" t="s">
+    </row>
+    <row r="58" spans="1:13">
+      <c r="C58" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="J5" s="43" t="s">
+      <c r="D58" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F58" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="H58" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="K5" s="43"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="39"/>
-      <c r="C6" s="38" t="s">
+    </row>
+    <row r="59" spans="1:13">
+      <c r="C59" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D59" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="H59" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="C60" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="H60" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="44"/>
+      <c r="H61" s="44"/>
+    </row>
+    <row r="62" spans="1:13" ht="33">
+      <c r="A62" s="60"/>
+      <c r="B62" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" s="44"/>
+    </row>
+    <row r="63" spans="1:13" ht="33">
+      <c r="B63" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" s="44"/>
+      <c r="M63" s="46" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="33">
+      <c r="A64" s="60"/>
+      <c r="B64" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" s="44"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="60"/>
+      <c r="B65" s="47"/>
+      <c r="H65" s="44"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="B66" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" s="44"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="B67" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" s="44"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="B68" s="47"/>
+      <c r="H68" s="44"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="B69" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="44"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="H70" s="44"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="B71" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" s="44"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="H72" s="44"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="B73" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" s="44"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="H74" s="44"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="H75" s="44"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="B76" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="H76" s="44"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="D77" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="H77" s="44"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="D78" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E78" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="H78" s="44"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="D79" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="H79" s="44"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="D80" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="H6" s="42"/>
-      <c r="J6" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="39"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="44" t="s">
+      <c r="E80" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="H80" s="44"/>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="D81" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="H7" s="42"/>
-      <c r="J7" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="K7" s="43"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="39"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="H8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="39"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="39"/>
-      <c r="B10" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="H10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="L10" s="43"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="39"/>
-      <c r="C11" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="H11" s="42"/>
-      <c r="J11" s="43"/>
-      <c r="L11" s="43"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="39"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="H12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="39"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="H13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="39"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="H14" s="42"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="39"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="H15" s="42"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="M15" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="39"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="H16" s="42"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="39"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="H17" s="42"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="39"/>
-      <c r="C18" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="H18" s="42"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="39"/>
-      <c r="C19" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="42"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="39"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="39"/>
-      <c r="B21" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="H21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="39"/>
-      <c r="C22" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="E22" s="42" t="s">
+      <c r="E81" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="H81" s="44"/>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="D82" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="H82" s="44"/>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="H83" s="44"/>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="H84" s="44"/>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="H85" s="44"/>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H86" s="44"/>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="H87" s="44"/>
+      <c r="I87" s="70"/>
+    </row>
+    <row r="88" spans="2:11" ht="33">
+      <c r="B88" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D88" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="71"/>
+      <c r="F88" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G88" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" s="48"/>
+      <c r="I88" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="J88" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="K88" s="71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="J89" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="K89" s="51"/>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E90" s="51"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="J90" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="K90" s="51"/>
+    </row>
+    <row r="91" spans="2:11" ht="132">
+      <c r="B91" s="51"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="H91" s="51"/>
+      <c r="I91" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+    </row>
+    <row r="92" spans="2:11">
+      <c r="B92" s="51"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="H92" s="53"/>
+      <c r="I92" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="J92" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="K92" s="51"/>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="51"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="E93" s="53"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="53"/>
+      <c r="H93" s="53"/>
+      <c r="I93" s="51"/>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94" s="51"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="E94" s="53"/>
+      <c r="F94" s="53"/>
+      <c r="G94" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="H94" s="53"/>
+      <c r="I94" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="J94" s="51"/>
+      <c r="K94" s="51"/>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" s="51"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="E95" s="51"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="H95" s="51"/>
+      <c r="I95" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="J95" s="51"/>
+      <c r="K95" s="51"/>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="H22" s="42"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="39"/>
-      <c r="C23" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="H23" s="42"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="39"/>
-      <c r="C24" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="42"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="39"/>
-      <c r="C25" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="H25" s="42"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="39"/>
-      <c r="C26" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="42"/>
-      <c r="J26" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="39"/>
-      <c r="B27" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="39"/>
-      <c r="C28" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="46"/>
-      <c r="H28" s="42"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="47" t="s">
+      <c r="J96" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="K96" s="51"/>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="51"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="J97" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="K97" s="51"/>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="51"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="42"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="B30" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="H30" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="K30" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="B31" s="49"/>
-      <c r="C31" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="H31" s="42" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="B32" s="49"/>
-      <c r="C32" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="H32" s="42" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="B33" s="49"/>
-      <c r="C33" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="G33" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="H33" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="K33" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="B34" s="49"/>
-      <c r="C34" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="G34" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="H34" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="K34" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="B35" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="L35" s="38" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="C36" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="G36" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="H36" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="I36" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="C37" s="50"/>
-      <c r="D37" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="F37" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="H37" s="42" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="50"/>
-      <c r="B38" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="G38" s="56" t="s">
-        <v>224</v>
-      </c>
-      <c r="H38" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="K38" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="M38" s="43"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="50"/>
-      <c r="C39" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="G39" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="M39" s="43"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="50"/>
-      <c r="C40" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="G40" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="H40" s="42" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="H41" s="42"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="H42" s="42"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="47"/>
-      <c r="B43" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="E43" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="G43" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="H43" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="I43" s="38" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="B44" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="E44" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="G44" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="H44" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="J44" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="47"/>
-      <c r="C45" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="E45" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="F45" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="G45" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="J45" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="50"/>
-      <c r="C46" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="E46" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="F46" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="G46" s="67" t="s">
-        <v>235</v>
-      </c>
-      <c r="H46" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="J46" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="50"/>
-      <c r="C47" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="F47" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="G47" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="H47" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="I47" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="M47" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="50"/>
-      <c r="B48" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="G48" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="H48" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="I48" s="38" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="50"/>
-      <c r="C49" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="E49" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="G49" s="67" t="s">
-        <v>257</v>
-      </c>
-      <c r="H49" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="I49" s="38" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="50"/>
-      <c r="C50" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="C51" s="46"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="H51" s="42"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="53"/>
-      <c r="H52" s="42"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="47"/>
-      <c r="B53" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E53" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="F53" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="H53" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="I53" s="43"/>
-      <c r="L53" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="47"/>
-      <c r="C54" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="F54" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="H54" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="47"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="E55" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="F55" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G55" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="H55" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="K55" s="43"/>
-      <c r="M55" s="43"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="47"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="F56" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="G56" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="H56" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="K56" s="43"/>
-      <c r="M56" s="43"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="C57" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="E57" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="F57" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="G57" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="H57" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="C58" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E58" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="F58" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="G58" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="H58" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="C59" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G59" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="H59" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="C60" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="F60" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H60" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="57"/>
-    </row>
-    <row r="62" spans="1:13" ht="33">
-      <c r="A62" s="55"/>
-      <c r="B62" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" s="57"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="57"/>
-    </row>
-    <row r="63" spans="1:13" ht="33">
-      <c r="B63" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" s="57"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="57"/>
-      <c r="M63" s="38" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="33">
-      <c r="A64" s="39"/>
-      <c r="B64" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" s="57"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="57"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="39"/>
-      <c r="B65" s="56"/>
-      <c r="F65" s="57"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="57"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="B66" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="F66" s="57"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="57"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="B67" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="F67" s="57"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="57"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="B68" s="56"/>
-      <c r="F68" s="57"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="57"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="B69" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="F69" s="57"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="57"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="F70" s="57"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="57"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="B71" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="F71" s="57"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="57"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="F72" s="57"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="57"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="B73" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F73" s="57"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="57"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="F74" s="57"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="57"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="F75" s="57"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="57"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="B76" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D76" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="F76" s="57"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="57"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="D77" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E77" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="F77" s="57"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="57"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="D78" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E78" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="F78" s="57"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="57"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="D79" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E79" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="F79" s="57"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="57"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="D80" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="E80" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="F80" s="57"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="57"/>
-    </row>
-    <row r="81" spans="2:11">
-      <c r="D81" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="E81" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="F81" s="57"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="57"/>
-    </row>
-    <row r="82" spans="2:11">
-      <c r="D82" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E82" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="F82" s="57"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="57"/>
-    </row>
-    <row r="83" spans="2:11">
-      <c r="F83" s="57"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="57"/>
-    </row>
-    <row r="84" spans="2:11">
-      <c r="F84" s="57"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="57"/>
-    </row>
-    <row r="85" spans="2:11">
-      <c r="F85" s="57"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="57"/>
-    </row>
-    <row r="86" spans="2:11">
-      <c r="B86" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F86" s="57"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="57"/>
-    </row>
-    <row r="87" spans="2:11">
-      <c r="F87" s="57"/>
-      <c r="H87" s="42"/>
-      <c r="I87" s="58"/>
-    </row>
-    <row r="88" spans="2:11" ht="33">
-      <c r="B88" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="C88" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="D88" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E88" s="59"/>
-      <c r="F88" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="G88" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="H88" s="61"/>
-      <c r="I88" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="J88" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="K88" s="59" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11">
-      <c r="B89" s="68"/>
-      <c r="C89" s="69"/>
-      <c r="D89" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E89" s="69"/>
-      <c r="F89" s="69"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="69"/>
-      <c r="I89" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J89" s="69" t="s">
-        <v>262</v>
-      </c>
-      <c r="K89" s="69"/>
-    </row>
-    <row r="90" spans="2:11">
-      <c r="B90" s="68"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="E90" s="69"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="70"/>
-      <c r="H90" s="69"/>
-      <c r="I90" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="J90" s="69" t="s">
-        <v>262</v>
-      </c>
-      <c r="K90" s="69"/>
-    </row>
-    <row r="91" spans="2:11" ht="132">
-      <c r="B91" s="68"/>
-      <c r="C91" s="69"/>
-      <c r="D91" s="71" t="s">
-        <v>260</v>
-      </c>
-      <c r="E91" s="69"/>
-      <c r="F91" s="69"/>
-      <c r="G91" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="H91" s="69"/>
-      <c r="I91" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="J91" s="69"/>
-      <c r="K91" s="69"/>
-    </row>
-    <row r="92" spans="2:11">
-      <c r="B92" s="68"/>
-      <c r="C92" s="69"/>
-      <c r="D92" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="E92" s="71"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="72" t="s">
-        <v>183</v>
-      </c>
-      <c r="H92" s="71"/>
-      <c r="I92" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="J92" s="69" t="s">
-        <v>262</v>
-      </c>
-      <c r="K92" s="69"/>
-    </row>
-    <row r="93" spans="2:11">
-      <c r="B93" s="68"/>
-      <c r="C93" s="69"/>
-      <c r="D93" s="71" t="s">
-        <v>184</v>
-      </c>
-      <c r="E93" s="71"/>
-      <c r="F93" s="71"/>
-      <c r="G93" s="72"/>
-      <c r="H93" s="71"/>
-      <c r="I93" s="69"/>
-      <c r="J93" s="69"/>
-      <c r="K93" s="69"/>
-    </row>
-    <row r="94" spans="2:11">
-      <c r="B94" s="68"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="72" t="s">
-        <v>186</v>
-      </c>
-      <c r="H94" s="71"/>
-      <c r="I94" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="J94" s="69"/>
-      <c r="K94" s="69"/>
-    </row>
-    <row r="95" spans="2:11">
-      <c r="B95" s="68"/>
-      <c r="C95" s="68"/>
-      <c r="D95" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="E95" s="68"/>
-      <c r="F95" s="68"/>
-      <c r="G95" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="H95" s="68"/>
-      <c r="I95" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="J95" s="68"/>
-      <c r="K95" s="68"/>
-    </row>
-    <row r="96" spans="2:11">
-      <c r="B96" s="68"/>
-      <c r="C96" s="68"/>
-      <c r="D96" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="E96" s="68"/>
-      <c r="F96" s="68"/>
-      <c r="G96" s="68"/>
-      <c r="H96" s="68"/>
-      <c r="I96" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="J96" s="68" t="s">
-        <v>262</v>
-      </c>
-      <c r="K96" s="68"/>
-    </row>
-    <row r="97" spans="2:11">
-      <c r="B97" s="68"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="68" t="s">
-        <v>263</v>
-      </c>
-      <c r="E97" s="68"/>
-      <c r="F97" s="68"/>
-      <c r="G97" s="68"/>
-      <c r="H97" s="68"/>
-      <c r="I97" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="J97" s="68" t="s">
-        <v>262</v>
-      </c>
-      <c r="K97" s="68"/>
-    </row>
-    <row r="98" spans="2:11">
-      <c r="B98" s="68"/>
-      <c r="C98" s="68"/>
-      <c r="D98" s="68" t="s">
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="E98" s="68"/>
-      <c r="F98" s="68"/>
-      <c r="G98" s="68"/>
-      <c r="H98" s="68"/>
-      <c r="I98" s="68" t="s">
-        <v>203</v>
-      </c>
-      <c r="J98" s="68" t="s">
-        <v>262</v>
-      </c>
-      <c r="K98" s="68" t="s">
-        <v>264</v>
+      <c r="J98" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="K98" s="51" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="E58:E61 D54:E56 D57:D60 A54:C61 A80:C83 D82 A62:XFD78 A79:D79 E79:XFD80 E82:XFD83 F81:XFD81 A84:XFD1048576 A45:F45 A38:XFD44 H45:XFD45 B7:B10 B1:B3 E1:E2 C1:D6 E5:E8 B12:B17 B20:B22 A1:A26 F1:XFD6 C7:XFD26 A27:XFD28 A36:A37 C36:XFD37 A31:XFD35 A29:A30 C29:XFD30 B30 A46:XFD53 G54:XFD61">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+  <conditionalFormatting sqref="E58:E61 D54:E56 D57:D60 A54:C61 A80:C83 D82 A62:XFD78 A79:D79 E79:XFD80 E82:XFD83 F81:XFD81 A84:XFD1048576 A45:F45 A38:XFD44 H45:XFD45 B7:B10 B1:B3 E1:E2 C1:D6 E5:E8 B12:B17 B20:B22 A1:A26 F1:XFD6 A36:A37 C36:XFD37 A31:XFD35 A29:A30 C29:XFD30 B30 A46:XFD53 G54:XFD61 H3:H7 C7:XFD26 A27:XFD28">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80:D81">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F61">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -4362,10 +5167,1732 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="133" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A105" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="5"/>
+    <col min="4" max="4" width="53.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="5"/>
+    <col min="7" max="7" width="10.125" style="27"/>
+    <col min="8" max="16384" width="10.125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>425</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3"/>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="73"/>
+      <c r="H4" s="7"/>
+      <c r="K4" s="34"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>426</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="73"/>
+      <c r="H6" s="7"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>427</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="7"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3"/>
+      <c r="B9" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>459</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="3"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>423</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="3"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="73"/>
+      <c r="H11" s="7"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="3"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>444</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="3"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G13" s="73"/>
+      <c r="H13" s="7"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="3"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="3"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="7"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="3"/>
+      <c r="B16" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G16" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3"/>
+      <c r="C17" s="10"/>
+      <c r="E17" s="7"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3"/>
+      <c r="B18" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="10"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3"/>
+      <c r="B23" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="17.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="17.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F28" s="41"/>
+      <c r="G28" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="10"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" s="38" customFormat="1">
+      <c r="A30" s="39"/>
+      <c r="B30" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" s="38" customFormat="1">
+      <c r="A31" s="39"/>
+      <c r="C31" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>456</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" s="38" customFormat="1">
+      <c r="A32" s="39"/>
+      <c r="C32" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" s="38" customFormat="1">
+      <c r="A33" s="39"/>
+      <c r="C33" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" s="43" t="s">
+        <v>458</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="10"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="B36" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="B37" s="12"/>
+      <c r="C37" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="B38" s="12"/>
+      <c r="C38" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="D39" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="B41" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="54"/>
+      <c r="B43" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G43" s="26"/>
+      <c r="H43" s="7"/>
+      <c r="M43" s="34"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="54"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G44" s="26"/>
+      <c r="H44" s="7"/>
+      <c r="M44" s="34"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="54"/>
+      <c r="C45" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G45" s="26"/>
+      <c r="H45" s="7"/>
+      <c r="M45" s="34"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="54"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="54"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="B49" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G49" s="75" t="s">
+        <v>434</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="C50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" s="75" t="s">
+        <v>436</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="11"/>
+      <c r="C51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" s="75" t="s">
+        <v>438</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="54"/>
+      <c r="C52" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="54"/>
+      <c r="C53" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G53" s="75" t="s">
+        <v>442</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="54"/>
+      <c r="C54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G54" s="76" t="s">
+        <v>433</v>
+      </c>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="54"/>
+      <c r="B55" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55" s="76" t="s">
+        <v>430</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="54"/>
+      <c r="C56" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G56" s="76" t="s">
+        <v>441</v>
+      </c>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="54"/>
+      <c r="C57" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G57" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="54"/>
+      <c r="C58" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G58" s="76" t="s">
+        <v>439</v>
+      </c>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="54"/>
+      <c r="C59" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" s="76" t="s">
+        <v>437</v>
+      </c>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="54"/>
+      <c r="B60" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G60" s="76" t="s">
+        <v>432</v>
+      </c>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="54"/>
+      <c r="C61" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G61" s="76" t="s">
+        <v>429</v>
+      </c>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="54"/>
+      <c r="C62" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G62" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="54"/>
+      <c r="C63" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G63" s="75" t="s">
+        <v>463</v>
+      </c>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="11"/>
+      <c r="B64" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G64" s="75"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="C65" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="21"/>
+      <c r="F66" s="55"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="11"/>
+      <c r="B67" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="34"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="11"/>
+      <c r="C68" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G68" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="11"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G69" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="H69" s="7"/>
+      <c r="K69" s="34"/>
+      <c r="M69" s="34"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="11"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="7"/>
+      <c r="K70" s="34"/>
+      <c r="M70" s="34"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72" s="7"/>
+      <c r="I72" s="23"/>
+    </row>
+    <row r="73" spans="1:13" ht="33">
+      <c r="A73" s="25"/>
+      <c r="B73" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" s="23"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="23"/>
+    </row>
+    <row r="74" spans="1:13" ht="33">
+      <c r="B74" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" s="23"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="23"/>
+    </row>
+    <row r="75" spans="1:13" ht="33">
+      <c r="A75" s="3"/>
+      <c r="B75" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="23"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="23"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="B76" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F76" s="23"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="23"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="B77" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" s="23"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="23"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="B78" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" s="23"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="23"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="3"/>
+      <c r="B79" s="26"/>
+      <c r="F79" s="23"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="23"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="B80" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F80" s="23"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="23"/>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F81" s="23"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="23"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="D82" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="D83" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="D84" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="D85" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="D86" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="D87" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="D88" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="D89" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="D90" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="D91" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="D92" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="D93" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" s="26"/>
+      <c r="F94" s="23"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="23"/>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F95" s="23"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="23"/>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F96" s="23"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="23"/>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="F97" s="23"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="23"/>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="D99" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="D100" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="F100" s="23"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="23"/>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="D101" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F101" s="23"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="23"/>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="F102" s="23"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="23"/>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F103" s="23"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="23"/>
+    </row>
+    <row r="104" spans="2:11" ht="33">
+      <c r="B104" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D104" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="E104" s="72"/>
+      <c r="F104" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G104" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H104" s="30"/>
+      <c r="I104" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="J104" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="K104" s="72" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="56"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="E105" s="57"/>
+      <c r="F105" s="57" t="s">
+        <v>379</v>
+      </c>
+      <c r="G105" s="77"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="J105" s="57"/>
+      <c r="K105" s="57"/>
+    </row>
+    <row r="106" spans="2:11" ht="49.5">
+      <c r="B106" s="57"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="E106" s="57"/>
+      <c r="F106" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="G106" s="56"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="J106" s="57"/>
+      <c r="K106" s="57"/>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="57"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="E107" s="58"/>
+      <c r="F107" s="58" t="s">
+        <v>408</v>
+      </c>
+      <c r="G107" s="78"/>
+      <c r="H107" s="58"/>
+      <c r="I107" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="J107" s="57"/>
+      <c r="K107" s="57"/>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108" s="57"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="E108" s="58"/>
+      <c r="F108" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="H108" s="58"/>
+      <c r="I108" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="J108" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="K108" s="57" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" s="57"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="E109" s="58"/>
+      <c r="F109" s="58"/>
+      <c r="G109" s="78"/>
+      <c r="H109" s="58"/>
+      <c r="I109" s="58"/>
+      <c r="J109" s="57"/>
+      <c r="K109" s="57"/>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="B110" s="57"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="57" t="s">
+        <v>401</v>
+      </c>
+      <c r="E110" s="57"/>
+      <c r="F110" s="57" t="s">
+        <v>379</v>
+      </c>
+      <c r="G110" s="56"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="57" t="s">
+        <v>402</v>
+      </c>
+      <c r="J110" s="57"/>
+      <c r="K110" s="57"/>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="57"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="E111" s="57"/>
+      <c r="F111" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="G111" s="56"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="57" t="s">
+        <v>360</v>
+      </c>
+      <c r="J111" s="57"/>
+      <c r="K111" s="57"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="A109:XFD1048576 E34:XFD38 A34:C38 D29:G29 H108:XFD108 A108:F108 A26:C29 D34 D36:D38 H26:XFD29 B18:B23 B1:B16 G1:XFD23 A1:A23 C1:E23 A52:F52 H52:XFD52 A30:XFD33 C26:F28 A24:XFD25 F18:F23 F1:F16 A95:B97 D95:XFD101 A98:C102 F102:XFD102 A103:XFD107 A39:XFD51 A53:XFD94">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
@@ -4529,991 +7056,6 @@
     </row>
     <row r="10" spans="1:14" ht="17.25">
       <c r="B10" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" ht="17.25">
-      <c r="B12" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="17.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="D13" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" ht="17.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="7"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="15" spans="1:14" ht="17.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="7"/>
-      <c r="M15" s="34"/>
-    </row>
-    <row r="16" spans="1:14" ht="17.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="7"/>
-      <c r="M16" s="34"/>
-    </row>
-    <row r="17" spans="1:8" ht="17.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="17.25">
-      <c r="A18" s="14"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25">
-      <c r="A19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" ht="17.25">
-      <c r="B20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" ht="17.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" ht="17.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="17.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" ht="17.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" ht="17.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" ht="17.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" ht="17.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" ht="17.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" ht="17.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" ht="17.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" ht="17.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:13" ht="17.25">
-      <c r="C33" s="10"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:13" ht="17.25">
-      <c r="A34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:13" ht="17.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="23"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="34"/>
-    </row>
-    <row r="36" spans="1:13" ht="17.25">
-      <c r="A36" s="11"/>
-      <c r="C36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="23"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:13" ht="17.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="7"/>
-      <c r="K37" s="34"/>
-      <c r="M37" s="34"/>
-    </row>
-    <row r="38" spans="1:13" ht="17.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="7"/>
-      <c r="K38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-    <row r="39" spans="1:13" ht="17.25">
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:13" s="5" customFormat="1" ht="17.25">
-      <c r="A40" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="1:13" s="5" customFormat="1" ht="33">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="1:13" s="5" customFormat="1" ht="33">
-      <c r="B42" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="23"/>
-    </row>
-    <row r="43" spans="1:13" s="5" customFormat="1" ht="33">
-      <c r="A43" s="3"/>
-      <c r="B43" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="23"/>
-    </row>
-    <row r="44" spans="1:13" s="5" customFormat="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="26"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="23"/>
-    </row>
-    <row r="45" spans="1:13" s="5" customFormat="1">
-      <c r="B45" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="23"/>
-    </row>
-    <row r="46" spans="1:13" s="5" customFormat="1">
-      <c r="B46" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="23"/>
-    </row>
-    <row r="47" spans="1:13" s="5" customFormat="1">
-      <c r="B47" s="26"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="23"/>
-    </row>
-    <row r="48" spans="1:13" s="5" customFormat="1">
-      <c r="B48" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="23"/>
-    </row>
-    <row r="49" spans="2:11" s="5" customFormat="1">
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="23"/>
-    </row>
-    <row r="50" spans="2:11" s="5" customFormat="1">
-      <c r="B50" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="23"/>
-    </row>
-    <row r="51" spans="2:11" s="5" customFormat="1">
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="23"/>
-    </row>
-    <row r="52" spans="2:11" s="5" customFormat="1">
-      <c r="B52" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="23"/>
-    </row>
-    <row r="53" spans="2:11" s="5" customFormat="1">
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="23"/>
-    </row>
-    <row r="54" spans="2:11" s="5" customFormat="1">
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="23"/>
-    </row>
-    <row r="55" spans="2:11" s="5" customFormat="1">
-      <c r="B55" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="23"/>
-    </row>
-    <row r="56" spans="2:11" s="5" customFormat="1">
-      <c r="D56" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="23"/>
-    </row>
-    <row r="57" spans="2:11" s="5" customFormat="1">
-      <c r="D57" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F57" s="23"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="23"/>
-    </row>
-    <row r="58" spans="2:11" s="5" customFormat="1">
-      <c r="D58" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="23"/>
-    </row>
-    <row r="59" spans="2:11" s="5" customFormat="1">
-      <c r="D59" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="23"/>
-    </row>
-    <row r="60" spans="2:11" s="5" customFormat="1">
-      <c r="D60" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="23"/>
-    </row>
-    <row r="61" spans="2:11" s="5" customFormat="1">
-      <c r="B61" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="23"/>
-    </row>
-    <row r="62" spans="2:11" s="5" customFormat="1">
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="36"/>
-    </row>
-    <row r="63" spans="2:11" s="5" customFormat="1" ht="33">
-      <c r="B63" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E63" s="28"/>
-      <c r="F63" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G63" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="H63" s="30"/>
-      <c r="I63" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="J63" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="K63" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11">
-      <c r="B64" s="31"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-    </row>
-    <row r="65" spans="2:11" ht="49.5">
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-    </row>
-    <row r="66" spans="2:11">
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="73" t="s">
-        <v>269</v>
-      </c>
-      <c r="J66" s="32"/>
-      <c r="K66" s="32"/>
-    </row>
-    <row r="67" spans="2:11">
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="73" t="s">
-        <v>265</v>
-      </c>
-      <c r="E67" s="73"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="73" t="s">
-        <v>266</v>
-      </c>
-      <c r="H67" s="73"/>
-      <c r="I67" s="73" t="s">
-        <v>259</v>
-      </c>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-    </row>
-    <row r="68" spans="2:11">
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73"/>
-      <c r="I68" s="73"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$G$3:$G$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>H1:H38 H79:H1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$A$3:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C79:C1048576 C1:C38</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$I$3:$I$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F38</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$E$3:$E$24</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B38 B79:B1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="4"/>
-    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="17.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="17.25">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" ht="17.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7"/>
-      <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7"/>
-      <c r="J5" s="34"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="1:14" ht="17.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
-      <c r="J6" s="34"/>
-      <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" ht="17.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-    </row>
-    <row r="8" spans="1:14" ht="17.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" ht="17.25">
-      <c r="A9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="17.25">
-      <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -5892,13 +7434,13 @@
       <c r="H48" s="7"/>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="2:11" s="5" customFormat="1">
+    <row r="49" spans="2:9" s="5" customFormat="1">
       <c r="F49" s="23"/>
       <c r="G49" s="27"/>
       <c r="H49" s="7"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="2:11" s="5" customFormat="1">
+    <row r="50" spans="2:9" s="5" customFormat="1">
       <c r="B50" s="5" t="s">
         <v>39</v>
       </c>
@@ -5907,13 +7449,13 @@
       <c r="H50" s="7"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="2:11" s="5" customFormat="1">
+    <row r="51" spans="2:9" s="5" customFormat="1">
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
       <c r="H51" s="7"/>
       <c r="I51" s="36"/>
     </row>
-    <row r="52" spans="2:11" s="5" customFormat="1" ht="33">
+    <row r="52" spans="2:9" s="5" customFormat="1" ht="33">
       <c r="B52" s="28" t="s">
         <v>40</v>
       </c>
@@ -5923,40 +7465,132 @@
       <c r="D52" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="28"/>
+      <c r="E52" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="F52" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G52" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="30"/>
-      <c r="I52" s="37" t="s">
+      <c r="G52" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="J52" s="28" t="s">
+      <c r="H52" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="K52" s="28" t="s">
+      <c r="I52" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:9">
       <c r="B53" s="31"/>
       <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
+      <c r="D53" s="32" t="s">
+        <v>469</v>
+      </c>
       <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="32" t="s">
+        <v>465</v>
+      </c>
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5996,10 +7630,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
@@ -6572,40 +8206,153 @@
       <c r="D52" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="28"/>
+      <c r="E52" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="F52" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G52" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="30"/>
-      <c r="I52" s="37" t="s">
+      <c r="G52" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="J52" s="28" t="s">
+      <c r="H52" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="K52" s="28" t="s">
+      <c r="I52" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" ht="17.25">
       <c r="B53" s="31"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="32"/>
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD51 A65:XFD1048576 A52:A64 J52:XFD64">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:I64">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6645,10 +8392,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
@@ -7221,40 +8968,158 @@
       <c r="D52" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="28"/>
+      <c r="E52" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="F52" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G52" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="30"/>
-      <c r="I52" s="37" t="s">
+      <c r="G52" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="J52" s="28" t="s">
+      <c r="H52" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="K52" s="28" t="s">
+      <c r="I52" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" ht="17.25">
       <c r="B53" s="31"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="32"/>
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD51 A65:XFD1048576 A52:A64 M52:XFD64">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:L64">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:I64">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7294,10 +9159,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
@@ -7777,14 +9642,17 @@
       <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:9" s="5" customFormat="1">
+      <c r="B40" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
       <c r="H40" s="7"/>
       <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9" s="5" customFormat="1">
-      <c r="B41" s="21" t="s">
-        <v>36</v>
+      <c r="B41" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
@@ -7792,6 +9660,9 @@
       <c r="I41" s="23"/>
     </row>
     <row r="42" spans="1:9" s="5" customFormat="1">
+      <c r="B42" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="7"/>
@@ -7799,7 +9670,7 @@
     </row>
     <row r="43" spans="1:9" s="5" customFormat="1">
       <c r="B43" s="5" t="s">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
@@ -7813,17 +9684,17 @@
       <c r="I44" s="23"/>
     </row>
     <row r="45" spans="1:9" s="5" customFormat="1">
+      <c r="B45" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="7"/>
       <c r="I45" s="23"/>
     </row>
     <row r="46" spans="1:9" s="5" customFormat="1">
-      <c r="B46" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="7"/>
       <c r="I46" s="23"/>
     </row>
@@ -7839,71 +9710,176 @@
       <c r="H48" s="7"/>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="2:11" s="5" customFormat="1">
+    <row r="49" spans="2:9" s="5" customFormat="1">
+      <c r="B49" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="F49" s="23"/>
-      <c r="G49" s="27"/>
+      <c r="G49" s="23"/>
       <c r="H49" s="7"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="2:11" s="5" customFormat="1">
-      <c r="B50" s="5" t="s">
-        <v>39</v>
-      </c>
+    <row r="50" spans="2:9" s="5" customFormat="1">
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="23"/>
-    </row>
-    <row r="51" spans="2:11" s="5" customFormat="1">
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="36"/>
-    </row>
-    <row r="52" spans="2:11" s="5" customFormat="1" ht="33">
-      <c r="B52" s="28" t="s">
+      <c r="I50" s="36"/>
+    </row>
+    <row r="51" spans="2:9" s="5" customFormat="1" ht="33">
+      <c r="B51" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C51" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D51" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="28"/>
-      <c r="F52" s="29" t="s">
+      <c r="E51" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G52" s="29" t="s">
+      <c r="F51" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="30"/>
-      <c r="I52" s="37" t="s">
+      <c r="G51" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="J52" s="28" t="s">
+      <c r="H51" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="K52" s="28" t="s">
+      <c r="I51" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="31"/>
+    <row r="52" spans="2:9">
+      <c r="B52" s="31"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="32"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
+      <c r="G53" s="32"/>
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="A42:A44 C42:XFD44 A1:XFD41 A45:XFD1048576">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:B44">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7916,7 +9892,7 @@
           <x14:formula1>
             <xm:f>附录!$E$3:$E$24</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B30 B69:B1048576</xm:sqref>
+          <xm:sqref>B1:B30 B68:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -7928,13 +9904,13 @@
           <x14:formula1>
             <xm:f>附录!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C30 C69:C1048576</xm:sqref>
+          <xm:sqref>C1:C30 C68:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H69:H1048576 H1:H30</xm:sqref>
+          <xm:sqref>H68:H1048576 H1:H30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8214,7 +10190,7 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C26 E2:E24 G2:G5 I1:I25">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2-周版本.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\手游1\项目管理\进度计划\Demo-里程碑2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="34020" windowHeight="19665" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5-27周输出" sheetId="11" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <sheet name="模板" sheetId="8" r:id="rId6"/>
     <sheet name="附录" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="526">
   <si>
     <t>类别</t>
   </si>
@@ -1122,9 +1127,6 @@
   </si>
   <si>
     <t>MG-301，MG-303</t>
-  </si>
-  <si>
-    <t>demo验收后对局调整内容列表</t>
   </si>
   <si>
     <t>xw</t>
@@ -1320,10 +1322,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>对局测试用例修改（AI、UI、换宠、照妖镜、动画表现、大招）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>roy体验修改后，是否有安排修改的时间</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1385,10 +1383,6 @@
   </si>
   <si>
     <t>ai，照妖镜， 换宠，对局表现修改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>文生zz</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1902,10 +1896,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>MG-337</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>MG-137 MG-138</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2095,6 +2085,548 @@
   </si>
   <si>
     <t>IM提示各系统文档中按标准设计回归，具体执行时间确认</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-402 MG-403</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-407</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-337 MG-383</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序建议：三方前是否可以安排一下文档内容讲解，便于理解文档内容。具体形式和时间节点待讨论。</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>san'fang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>an'pai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yi'xia</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wen'dang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>nei'rong</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>jiang'jie</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bian'yu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>li'jie</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>wen'dang</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ner'iong</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ju't</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>xing'shi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>he</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>jie'dian</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>tao'lun</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                 时间节点：程序建议在准备开发前，不要太早</t>
+    <rPh sb="17" eb="18">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jie'dian</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jian'yi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhun'b</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>bu'yao</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>tai'zao</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                 具体形式：</t>
+    <rPh sb="17" eb="18">
+      <t>ju't</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xing'shi</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>差一个玩法</t>
+    <rPh sb="0" eb="1">
+      <t>cha</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yi'g</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan'fa</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>大家开站会之前收集一下问题，了解一下工作进展</t>
+    <rPh sb="0" eb="1">
+      <t>da'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhan'hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'qian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi'xia</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>liao'jie</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yi'xia</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>jin'zhan</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品原型-稀有怪降临排期制作</t>
+    <rPh sb="0" eb="1">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi'you'guai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiang'lin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>pai'qi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi'zuo</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>各组广播：</t>
+    <rPh sb="0" eb="1">
+      <t>ge'zu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guang'bo</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                三方后策划需要负责找相关程序、美术拆分任务及工期，并与策划自己的工作拆分一起回归到文档中，负责检查任务拆分的完整性。木木负责将拆分任务发给MT审批，审批结果回归后确认封文档</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                Jira任务状态及时更新，尤其是组间相关任务</t>
+    <rPh sb="20" eb="21">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhuang't</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ji'shi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>you'qi</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划筛选0.7需要的副本玩法，确认需要在本里程碑内添加的东西</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月10日</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo验收后对局调整内容列表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>差策划工作排期</t>
+    <rPh sb="0" eb="1">
+      <t>cha</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑2计划更新状态</t>
+    <rPh sb="0" eb="1">
+      <t>li'cheng'bei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhuang't</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用特效需求时间确认</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月1日</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <rPh sb="0" eb="1">
+      <t>zan'ting</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>原画阻碍</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zu'ai</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻碍</t>
+    <rPh sb="0" eb="1">
+      <t>zu'ai</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本阻碍</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zu'ai</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>文生 zz</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <rPh sb="0" eb="1">
+      <t>bi'xu</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备穿脱</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang'bei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chuan'tuo</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅帅</t>
+    <rPh sb="0" eb="1">
+      <t>shuai'shuai</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消，zz调整</t>
+    <rPh sb="0" eb="1">
+      <t>qu'xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tiao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计时间</t>
+    <rPh sb="0" eb="1">
+      <t>yu'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际时间</t>
+    <rPh sb="0" eb="1">
+      <t>shi'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>day6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方</t>
+    <rPh sb="0" eb="1">
+      <t>san'fang</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-基础，照妖镜</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhao'yao'jing</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统？</t>
+    <rPh sb="0" eb="1">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xi't</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月28日</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望程序将现在的log输出做成文件输出，方便查看和记录</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>封妖修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局测试用例修改（AI、UI、换宠、照妖镜、动画表现、大招）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI延期下周</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本逻辑、副本照妖镜文档</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算文档分析</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择文档分析</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局掉落表现文档分析</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱文档分析</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局AI测试用例设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局测试用例走读（UI、AI、换宠、照妖镜、动画）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能、大招测试用例走读</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局AI逻辑测试</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>换宠功能测试</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜功能测试</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能逻辑测试（switch）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局、技能动画表现逻辑测试</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2607,7 +3139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2787,12 +3319,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="110">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2906,7 +3433,58 @@
     <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2979,12 +3557,71 @@
     </dxf>
     <dxf>
       <font>
-        <color indexed="60"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3832,7 +4469,7 @@
       <c r="J15" s="47"/>
       <c r="K15" s="47"/>
       <c r="L15" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M15" s="46" t="s">
         <v>211</v>
@@ -3907,7 +4544,7 @@
         <v>253</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3973,7 +4610,7 @@
         <v>128</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E22" s="44" t="s">
         <v>130</v>
@@ -3985,7 +4622,7 @@
         <v>236</v>
       </c>
       <c r="H22" s="46" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4021,7 +4658,7 @@
       <c r="F24" s="44"/>
       <c r="G24" s="43"/>
       <c r="H24" s="46" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -4040,7 +4677,7 @@
         <v>237</v>
       </c>
       <c r="H25" s="46" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4102,7 +4739,7 @@
       </c>
       <c r="G28" s="43"/>
       <c r="H28" s="46" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4133,7 +4770,7 @@
         <v>213</v>
       </c>
       <c r="H30" s="44" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K30" s="46" t="s">
         <v>211</v>
@@ -4154,7 +4791,7 @@
         <v>159</v>
       </c>
       <c r="H31" s="44" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4172,7 +4809,7 @@
         <v>158</v>
       </c>
       <c r="H32" s="44" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -4190,7 +4827,7 @@
         <v>217</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K33" s="46" t="s">
         <v>211</v>
@@ -4211,7 +4848,7 @@
         <v>214</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K34" s="46" t="s">
         <v>211</v>
@@ -4237,10 +4874,10 @@
         <v>212</v>
       </c>
       <c r="H35" s="44" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L35" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -4260,7 +4897,7 @@
         <v>215</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I36" s="46" t="s">
         <v>211</v>
@@ -4269,16 +4906,16 @@
     <row r="37" spans="1:13">
       <c r="C37" s="66"/>
       <c r="D37" s="66" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E37" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="F37" s="46" t="s">
         <v>293</v>
       </c>
-      <c r="F37" s="46" t="s">
-        <v>295</v>
-      </c>
       <c r="H37" s="44" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -4302,7 +4939,7 @@
         <v>222</v>
       </c>
       <c r="H38" s="44" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K38" s="46" t="s">
         <v>211</v>
@@ -4327,7 +4964,7 @@
         <v>223</v>
       </c>
       <c r="H39" s="44" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M39" s="47"/>
     </row>
@@ -4349,7 +4986,7 @@
         <v>221</v>
       </c>
       <c r="H40" s="44" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -4387,10 +5024,10 @@
         <v>230</v>
       </c>
       <c r="H43" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="I43" s="46" t="s">
         <v>269</v>
-      </c>
-      <c r="I43" s="46" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -4485,10 +5122,10 @@
         <v>232</v>
       </c>
       <c r="H47" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I47" s="46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M47" s="46" t="s">
         <v>211</v>
@@ -4515,10 +5152,10 @@
         <v>234</v>
       </c>
       <c r="H48" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I48" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -4539,10 +5176,10 @@
         <v>255</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I49" s="46" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -4772,7 +5409,7 @@
       </c>
       <c r="H63" s="44"/>
       <c r="M63" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="33">
@@ -4960,7 +5597,7 @@
         <v>83</v>
       </c>
       <c r="J89" s="51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K89" s="51"/>
     </row>
@@ -4978,7 +5615,7 @@
         <v>84</v>
       </c>
       <c r="J90" s="51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K90" s="51"/>
     </row>
@@ -4986,7 +5623,7 @@
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E91" s="51"/>
       <c r="F91" s="51"/>
@@ -5016,7 +5653,7 @@
         <v>187</v>
       </c>
       <c r="J92" s="51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K92" s="51"/>
     </row>
@@ -5084,7 +5721,7 @@
         <v>130</v>
       </c>
       <c r="J96" s="51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K96" s="51"/>
     </row>
@@ -5092,7 +5729,7 @@
       <c r="B97" s="51"/>
       <c r="C97" s="51"/>
       <c r="D97" s="51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E97" s="51"/>
       <c r="F97" s="51"/>
@@ -5102,7 +5739,7 @@
         <v>193</v>
       </c>
       <c r="J97" s="51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K97" s="51"/>
     </row>
@@ -5120,31 +5757,31 @@
         <v>202</v>
       </c>
       <c r="J98" s="51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K98" s="51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="E58:E61 D54:E56 D57:D60 A54:C61 A80:C83 D82 A62:XFD78 A79:D79 E79:XFD80 E82:XFD83 F81:XFD81 A84:XFD1048576 A45:F45 A38:XFD44 H45:XFD45 B7:B10 B1:B3 E1:E2 C1:D6 E5:E8 B12:B17 B20:B22 A1:A26 F1:XFD6 A36:A37 C36:XFD37 A31:XFD35 A29:A30 C29:XFD30 B30 A46:XFD53 G54:XFD61 H3:H7 C7:XFD26 A27:XFD28">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80:D81">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F61">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5169,8 +5806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
@@ -5246,25 +5883,28 @@
     <row r="3" spans="1:14">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>133</v>
       </c>
       <c r="G3" s="73" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H3" s="7"/>
       <c r="K3" s="34"/>
+      <c r="L3" s="5" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3"/>
@@ -5272,10 +5912,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>133</v>
@@ -5283,6 +5923,9 @@
       <c r="G4" s="73"/>
       <c r="H4" s="7"/>
       <c r="K4" s="34"/>
+      <c r="L4" s="5" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3"/>
@@ -5294,17 +5937,20 @@
         <v>112</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>133</v>
       </c>
       <c r="G5" s="73" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H5" s="7"/>
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
+      <c r="M5" s="5" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3"/>
@@ -5313,10 +5959,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>133</v>
@@ -5325,28 +5971,34 @@
       <c r="H6" s="7"/>
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
+      <c r="L6" s="5" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>133</v>
       </c>
       <c r="G7" s="73" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H7" s="7"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
+      <c r="L7" s="5" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3"/>
@@ -5362,48 +6014,53 @@
     <row r="9" spans="1:14">
       <c r="A9" s="3"/>
       <c r="B9" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>327</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>330</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>133</v>
       </c>
       <c r="G9" s="73" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H9" s="7"/>
       <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="K9" s="34" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>158</v>
       </c>
       <c r="G10" s="73" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H10" s="7"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
+      <c r="M10" s="5" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3"/>
@@ -5412,10 +6069,10 @@
         <v>94</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F11" s="41" t="s">
         <v>158</v>
@@ -5424,24 +6081,27 @@
       <c r="H11" s="7"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
+      <c r="M11" s="5" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F12" s="41" t="s">
         <v>158</v>
       </c>
       <c r="G12" s="73" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H12" s="7"/>
       <c r="J12" s="34"/>
@@ -5451,37 +6111,39 @@
       <c r="A13" s="3"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G13" s="73"/>
       <c r="H13" s="7"/>
-      <c r="J13" s="34"/>
+      <c r="J13" s="34" t="s">
+        <v>211</v>
+      </c>
       <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="73" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H14" s="7"/>
       <c r="J14" s="34"/>
@@ -5498,120 +6160,132 @@
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="33">
       <c r="A16" s="3"/>
       <c r="B16" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G16" s="73" t="s">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="H16" s="7"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="M16" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="3"/>
       <c r="C17" s="10"/>
       <c r="E17" s="7"/>
       <c r="G17" s="10"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18" s="3"/>
       <c r="B18" s="38" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="K18" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="3"/>
       <c r="B19" s="38"/>
       <c r="C19" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F19" s="41" t="s">
         <v>158</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20" s="3"/>
       <c r="B20" s="38"/>
       <c r="C20" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="M20" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="3"/>
       <c r="B21" s="38"/>
       <c r="C21" s="10" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F21" s="41" t="s">
         <v>158</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:13">
       <c r="A22" s="3"/>
       <c r="B22" s="38"/>
       <c r="C22" s="10"/>
@@ -5620,121 +6294,131 @@
       <c r="G22" s="10"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23" s="3"/>
       <c r="B23" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="J23" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="3"/>
       <c r="B24" s="38"/>
       <c r="C24" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F24" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>467</v>
+      </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:13">
       <c r="A25" s="3"/>
       <c r="B25" s="38"/>
       <c r="C25" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F25" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="10" t="s">
+        <v>468</v>
+      </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="17.25">
+    <row r="26" spans="1:13" ht="17.25">
       <c r="A26" s="3"/>
       <c r="B26" s="38"/>
       <c r="C26" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D26" s="59" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F26" s="41" t="s">
         <v>158</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="17.25">
+    <row r="27" spans="1:13" ht="17.25">
       <c r="A27" s="3"/>
       <c r="B27" s="38"/>
       <c r="C27" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D27" s="59" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F27" s="41" t="s">
         <v>158</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="17.25">
+    <row r="28" spans="1:13" ht="17.25">
       <c r="A28" s="3"/>
       <c r="B28" s="38"/>
       <c r="C28" s="10" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D28" s="59" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F28" s="41"/>
       <c r="G28" s="27" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:13">
       <c r="A29" s="3"/>
       <c r="B29" s="38"/>
       <c r="C29" s="10"/>
@@ -5743,86 +6427,98 @@
       <c r="G29" s="10"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" s="38" customFormat="1">
+    <row r="30" spans="1:13" s="38" customFormat="1">
       <c r="A30" s="39"/>
       <c r="B30" s="38" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C30" s="38" t="s">
         <v>94</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>133</v>
       </c>
       <c r="G30" s="43" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" s="38" customFormat="1">
+      <c r="L30" s="38" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="38" customFormat="1">
       <c r="A31" s="39"/>
       <c r="C31" s="38" t="s">
         <v>94</v>
       </c>
       <c r="D31" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="E31" s="41" t="s">
         <v>414</v>
-      </c>
-      <c r="E31" s="41" t="s">
-        <v>417</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>133</v>
       </c>
       <c r="G31" s="43" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" s="38" customFormat="1">
+      <c r="L31" s="38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="38" customFormat="1">
       <c r="A32" s="39"/>
       <c r="C32" s="38" t="s">
         <v>94</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G32" s="43" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:13" s="38" customFormat="1">
+      <c r="K32" s="38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="38" customFormat="1">
       <c r="A33" s="39"/>
       <c r="C33" s="38" t="s">
         <v>94</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F33" s="41" t="s">
         <v>158</v>
       </c>
       <c r="G33" s="43" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="M33" s="38" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="3"/>
       <c r="B34" s="38"/>
       <c r="C34" s="10"/>
@@ -5831,7 +6527,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:14">
       <c r="A35" s="11" t="s">
         <v>21</v>
       </c>
@@ -5839,105 +6535,111 @@
       <c r="G35" s="74"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:14">
       <c r="B36" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>265</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="B37" s="12"/>
       <c r="C37" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>299</v>
-      </c>
       <c r="E37" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="L37" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="B38" s="12"/>
       <c r="C38" s="13" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:14">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="D39" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>305</v>
+        <v>492</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:14">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:14">
       <c r="B41" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:14">
       <c r="B42" s="12"/>
       <c r="C42" s="13"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:14">
       <c r="A43" s="54"/>
       <c r="B43" s="15" t="s">
         <v>23</v>
@@ -5946,79 +6648,101 @@
         <v>14</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G43" s="26"/>
       <c r="H43" s="7"/>
+      <c r="L43" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="M43" s="34"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:14">
       <c r="A44" s="54"/>
       <c r="B44" s="15"/>
       <c r="C44" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G44" s="26"/>
       <c r="H44" s="7"/>
       <c r="M44" s="34"/>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="54"/>
       <c r="C45" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G45" s="26"/>
       <c r="H45" s="7"/>
       <c r="M45" s="34"/>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="54"/>
       <c r="B46" s="15"/>
       <c r="C46" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:14">
       <c r="A47" s="54"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
+      <c r="C47" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="L47" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="11" t="s">
         <v>24</v>
       </c>
@@ -6026,36 +6750,38 @@
       <c r="D48" s="13"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:14">
       <c r="B49" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G49" s="75" t="s">
-        <v>434</v>
-      </c>
-      <c r="H49" s="7"/>
+        <v>430</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="I49" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:14">
       <c r="C50" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>92</v>
@@ -6064,191 +6790,241 @@
         <v>149</v>
       </c>
       <c r="G50" s="75" t="s">
-        <v>436</v>
-      </c>
-      <c r="H50" s="7"/>
+        <v>432</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="I50" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:14">
       <c r="A51" s="11"/>
       <c r="C51" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G51" s="75" t="s">
-        <v>438</v>
-      </c>
-      <c r="H51" s="7"/>
+        <v>434</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="I51" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:14">
       <c r="A52" s="54"/>
       <c r="C52" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>118</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:9">
+        <v>436</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="54"/>
       <c r="C53" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>92</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G53" s="75" t="s">
-        <v>442</v>
-      </c>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:9">
+        <v>438</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="54"/>
       <c r="C54" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G54" s="76" t="s">
-        <v>433</v>
-      </c>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:9">
+        <v>429</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="54"/>
       <c r="B55" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>118</v>
       </c>
       <c r="G55" s="76" t="s">
-        <v>430</v>
-      </c>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:9">
+        <v>426</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="54"/>
       <c r="C56" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>118</v>
       </c>
       <c r="G56" s="76" t="s">
-        <v>441</v>
-      </c>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:9">
+        <v>437</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="54"/>
       <c r="C57" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G57" s="76" t="s">
-        <v>435</v>
-      </c>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:9">
+        <v>431</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="54"/>
       <c r="C58" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>288</v>
+        <v>506</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>122</v>
       </c>
       <c r="G58" s="76" t="s">
-        <v>439</v>
-      </c>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:9">
+        <v>435</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="54"/>
       <c r="C59" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>122</v>
       </c>
       <c r="G59" s="76" t="s">
-        <v>437</v>
-      </c>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:9">
+        <v>433</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="54"/>
       <c r="B60" s="5" t="s">
         <v>50</v>
@@ -6257,110 +7033,143 @@
         <v>14</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G60" s="76" t="s">
-        <v>432</v>
-      </c>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:9">
+        <v>428</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="54"/>
       <c r="C61" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>154</v>
       </c>
       <c r="G61" s="76" t="s">
-        <v>429</v>
-      </c>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:9">
+        <v>425</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="54"/>
       <c r="C62" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>126</v>
       </c>
       <c r="G62" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:9">
+        <v>427</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="54"/>
       <c r="C63" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>134</v>
       </c>
       <c r="G63" s="75" t="s">
-        <v>463</v>
-      </c>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:9">
+        <v>459</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="11"/>
       <c r="B64" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>162</v>
       </c>
       <c r="G64" s="75"/>
-      <c r="H64" s="7"/>
+      <c r="H64" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="65" spans="1:13">
       <c r="C65" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H65" s="7"/>
+      <c r="H65" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="11" t="s">
@@ -6379,36 +7188,42 @@
         <v>14</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="34"/>
+      <c r="K67" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="11"/>
       <c r="C68" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>48</v>
       </c>
       <c r="G68" s="27" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H68" s="7"/>
     </row>
@@ -6419,16 +7234,16 @@
         <v>14</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>48</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H69" s="7"/>
       <c r="K69" s="34"/>
@@ -6437,9 +7252,7 @@
     <row r="70" spans="1:13">
       <c r="A70" s="11"/>
       <c r="B70" s="21"/>
-      <c r="C70" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="C70" s="21"/>
       <c r="H70" s="7"/>
       <c r="K70" s="34"/>
       <c r="M70" s="34"/>
@@ -6533,26 +7346,37 @@
         <v>34</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="F81" s="23"/>
+        <v>345</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="F81" s="27" t="s">
+        <v>498</v>
+      </c>
       <c r="H81" s="7"/>
       <c r="I81" s="23"/>
     </row>
     <row r="82" spans="2:9">
       <c r="D82" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="D83" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="84" spans="2:9">
@@ -6560,79 +7384,106 @@
         <v>124</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="D85" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="D86" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="D87" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="D88" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="D89" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="D90" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="D91" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E91" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="E91" s="5" t="s">
-        <v>379</v>
+      <c r="F91" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="D92" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="D93" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="2:9">
@@ -6646,7 +7497,7 @@
         <v>207</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F95" s="23"/>
       <c r="H95" s="7"/>
@@ -6657,18 +7508,21 @@
         <v>208</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="F96" s="23"/>
       <c r="H96" s="7"/>
       <c r="I96" s="23"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:9">
       <c r="F97" s="23"/>
       <c r="H97" s="7"/>
       <c r="I97" s="23"/>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:9">
       <c r="B98" s="5" t="s">
         <v>38</v>
       </c>
@@ -6676,45 +7530,45 @@
         <v>209</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
       <c r="D99" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
       <c r="D100" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F100" s="23"/>
       <c r="H100" s="7"/>
       <c r="I100" s="23"/>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:9">
       <c r="D101" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F101" s="23"/>
       <c r="H101" s="7"/>
       <c r="I101" s="23"/>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="2:9">
       <c r="F102" s="23"/>
       <c r="H102" s="7"/>
       <c r="I102" s="23"/>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:9">
       <c r="B103" s="5" t="s">
         <v>39</v>
       </c>
@@ -6722,7 +7576,7 @@
       <c r="H103" s="7"/>
       <c r="I103" s="23"/>
     </row>
-    <row r="104" spans="2:11" ht="33">
+    <row r="104" spans="2:9" ht="33">
       <c r="B104" s="72" t="s">
         <v>40</v>
       </c>
@@ -6732,153 +7586,150 @@
       <c r="D104" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="E104" s="72"/>
+      <c r="E104" s="30" t="s">
+        <v>43</v>
+      </c>
       <c r="F104" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G104" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H104" s="30"/>
+      <c r="G104" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" s="72" t="s">
+        <v>46</v>
+      </c>
       <c r="I104" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="J104" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="K104" s="72" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:9">
       <c r="B105" s="56"/>
       <c r="C105" s="57"/>
       <c r="D105" s="57" t="s">
-        <v>256</v>
+        <v>481</v>
       </c>
       <c r="E105" s="57"/>
       <c r="F105" s="57" t="s">
-        <v>379</v>
-      </c>
-      <c r="G105" s="77"/>
+        <v>376</v>
+      </c>
+      <c r="G105" s="57" t="s">
+        <v>256</v>
+      </c>
       <c r="H105" s="57"/>
       <c r="I105" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="J105" s="57"/>
-      <c r="K105" s="57"/>
-    </row>
-    <row r="106" spans="2:11" ht="49.5">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="49.5">
       <c r="B106" s="57"/>
       <c r="C106" s="57"/>
       <c r="D106" s="58" t="s">
-        <v>407</v>
-      </c>
-      <c r="E106" s="57"/>
+        <v>404</v>
+      </c>
+      <c r="E106" s="57" t="s">
+        <v>127</v>
+      </c>
       <c r="F106" s="57" t="s">
-        <v>408</v>
-      </c>
-      <c r="G106" s="56"/>
-      <c r="H106" s="57"/>
-      <c r="I106" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="G106" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="J106" s="57"/>
-      <c r="K106" s="57"/>
-    </row>
-    <row r="107" spans="2:11">
+      <c r="H106" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="I106" s="57"/>
+    </row>
+    <row r="107" spans="2:9">
       <c r="B107" s="57"/>
       <c r="C107" s="57"/>
       <c r="D107" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="E107" s="57" t="s">
+        <v>483</v>
+      </c>
+      <c r="F107" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G107" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="E107" s="58"/>
-      <c r="F107" s="58" t="s">
-        <v>408</v>
-      </c>
-      <c r="G107" s="78"/>
-      <c r="H107" s="58"/>
-      <c r="I107" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="J107" s="57"/>
-      <c r="K107" s="57"/>
-    </row>
-    <row r="108" spans="2:11">
+      <c r="H107" s="57"/>
+      <c r="I107" s="57"/>
+    </row>
+    <row r="108" spans="2:9">
       <c r="B108" s="57"/>
       <c r="C108" s="57"/>
       <c r="D108" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="E108" s="58"/>
+        <v>261</v>
+      </c>
+      <c r="E108" s="57" t="s">
+        <v>503</v>
+      </c>
       <c r="F108" s="58" t="s">
-        <v>409</v>
-      </c>
-      <c r="H108" s="58"/>
-      <c r="I108" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="J108" s="57" t="s">
-        <v>259</v>
-      </c>
-      <c r="K108" s="57" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="109" spans="2:11">
+        <v>406</v>
+      </c>
+      <c r="G108" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="H108" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="I108" s="57" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
       <c r="B109" s="57"/>
       <c r="C109" s="57"/>
       <c r="D109" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="E109" s="58"/>
+        <v>262</v>
+      </c>
+      <c r="E109" s="57"/>
       <c r="F109" s="58"/>
-      <c r="G109" s="78"/>
-      <c r="H109" s="58"/>
-      <c r="I109" s="58"/>
-      <c r="J109" s="57"/>
-      <c r="K109" s="57"/>
-    </row>
-    <row r="110" spans="2:11">
+      <c r="G109" s="58"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="57"/>
+    </row>
+    <row r="110" spans="2:9">
       <c r="B110" s="57"/>
       <c r="C110" s="57"/>
       <c r="D110" s="57" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E110" s="57"/>
       <c r="F110" s="57" t="s">
-        <v>379</v>
-      </c>
-      <c r="G110" s="56"/>
+        <v>376</v>
+      </c>
+      <c r="G110" s="57" t="s">
+        <v>399</v>
+      </c>
       <c r="H110" s="57"/>
       <c r="I110" s="57" t="s">
-        <v>402</v>
-      </c>
-      <c r="J110" s="57"/>
-      <c r="K110" s="57"/>
-    </row>
-    <row r="111" spans="2:11">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9">
       <c r="B111" s="57"/>
       <c r="C111" s="57"/>
       <c r="D111" s="57" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E111" s="57"/>
       <c r="F111" s="57" t="s">
-        <v>412</v>
-      </c>
-      <c r="G111" s="56"/>
+        <v>409</v>
+      </c>
+      <c r="G111" s="57" t="s">
+        <v>357</v>
+      </c>
       <c r="H111" s="57"/>
-      <c r="I111" s="57" t="s">
-        <v>360</v>
-      </c>
-      <c r="J111" s="57"/>
-      <c r="K111" s="57"/>
+      <c r="I111" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="A109:XFD1048576 E34:XFD38 A34:C38 D29:G29 H108:XFD108 A108:F108 A26:C29 D34 D36:D38 H26:XFD29 B18:B23 B1:B16 G1:XFD23 A1:A23 C1:E23 A52:F52 H52:XFD52 A30:XFD33 C26:F28 A24:XFD25 F18:F23 F1:F16 A95:B97 D95:XFD101 A98:C102 F102:XFD102 A103:XFD107 A39:XFD51 A53:XFD94">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+  <conditionalFormatting sqref="E34:XFD36 A34:C38 D29:G29 A26:C29 D34 D36:D38 H26:XFD29 B18:B23 B1:B16 A1:A23 C1:E23 A52:F52 A30:XFD33 C26:F28 A24:XFD25 F18:F23 F1:F16 A95:B97 D95:XFD101 A98:C102 F102:XFD102 G1:XFD23 A112:XFD1048576 A105:D111 F105:XFD111 A103:XFD104 E38:XFD38 E37:J37 L37:XFD37 A66:XFD94 A39:XFD49 A50:G51 A53:G65 H50:XFD65">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6889,10 +7740,1036 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="4"/>
+    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="10.125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="J5" s="34"/>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="1:14" ht="17.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="J6" s="34"/>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" ht="17.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" ht="17.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="17.25">
+      <c r="A9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.25">
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" ht="17.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="5"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="17.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="17.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="7"/>
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:14" ht="17.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="7"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="1:14" ht="17.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="5"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="17.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="5"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.25">
+      <c r="A17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.25">
+      <c r="A18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25">
+      <c r="B19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="17.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="17.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="17.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="17.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="17.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="17.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="17.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="17.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="17.25">
+      <c r="C31" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="17.25">
+      <c r="A32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" ht="17.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" spans="1:13" ht="17.25">
+      <c r="A34" s="11"/>
+      <c r="C34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" ht="17.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="7"/>
+      <c r="K35" s="34"/>
+      <c r="M35" s="34"/>
+    </row>
+    <row r="36" spans="1:13" ht="17.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="7"/>
+      <c r="K36" s="34"/>
+      <c r="M36" s="34"/>
+    </row>
+    <row r="37" spans="1:13" ht="17.25">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" s="5" customFormat="1" ht="17.25">
+      <c r="A38" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" s="5" customFormat="1" ht="33">
+      <c r="A39" s="25"/>
+      <c r="B39" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="1:13" s="5" customFormat="1" ht="33">
+      <c r="B40" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="1:13" s="5" customFormat="1" ht="33">
+      <c r="A41" s="3"/>
+      <c r="B41" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="1:13" s="5" customFormat="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:13" s="5" customFormat="1">
+      <c r="B43" s="26"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="1:13" s="5" customFormat="1">
+      <c r="B44" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:13" s="5" customFormat="1">
+      <c r="B45" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="1:13" s="5" customFormat="1">
+      <c r="B46" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="23"/>
+    </row>
+    <row r="47" spans="1:13" s="5" customFormat="1">
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="23"/>
+    </row>
+    <row r="48" spans="1:13" s="5" customFormat="1">
+      <c r="B48" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="2:9" s="5" customFormat="1">
+      <c r="B49" s="26"/>
+      <c r="D49" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="2:9" s="5" customFormat="1">
+      <c r="B50" s="26"/>
+      <c r="D50" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="2:9" s="5" customFormat="1">
+      <c r="B51" s="26"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="23"/>
+    </row>
+    <row r="52" spans="2:9" s="5" customFormat="1">
+      <c r="B52" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F52" s="23"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="23"/>
+    </row>
+    <row r="53" spans="2:9" s="5" customFormat="1">
+      <c r="B53" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F53" s="23"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="23"/>
+    </row>
+    <row r="54" spans="2:9" s="5" customFormat="1">
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="23"/>
+    </row>
+    <row r="55" spans="2:9" s="5" customFormat="1">
+      <c r="B55" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="23"/>
+    </row>
+    <row r="56" spans="2:9" s="5" customFormat="1">
+      <c r="D56" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="F56" s="23"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="23"/>
+    </row>
+    <row r="57" spans="2:9" s="5" customFormat="1">
+      <c r="D57" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F57" s="23"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="23"/>
+    </row>
+    <row r="58" spans="2:9" s="5" customFormat="1">
+      <c r="D58" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F58" s="23"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="23"/>
+    </row>
+    <row r="59" spans="2:9" s="5" customFormat="1">
+      <c r="D59" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F59" s="23"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="23"/>
+    </row>
+    <row r="60" spans="2:9" s="5" customFormat="1">
+      <c r="D60" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="F60" s="23"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="23"/>
+    </row>
+    <row r="61" spans="2:9" s="5" customFormat="1">
+      <c r="D61" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F61" s="23"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="23"/>
+    </row>
+    <row r="62" spans="2:9" s="5" customFormat="1">
+      <c r="D62" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F62" s="23"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="23"/>
+    </row>
+    <row r="63" spans="2:9" s="5" customFormat="1">
+      <c r="B63" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="23"/>
+    </row>
+    <row r="64" spans="2:9" s="5" customFormat="1">
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="36"/>
+    </row>
+    <row r="65" spans="2:9" s="5" customFormat="1">
+      <c r="B65" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G65" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="17.25">
+      <c r="B66" s="31"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="57" t="s">
+        <v>465</v>
+      </c>
+      <c r="E66" s="57"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+    </row>
+    <row r="67" spans="2:9" ht="17.25">
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="57" t="s">
+        <v>460</v>
+      </c>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57" t="s">
+        <v>462</v>
+      </c>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+    </row>
+    <row r="68" spans="2:9" ht="17.25">
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="57" t="s">
+        <v>463</v>
+      </c>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+    </row>
+    <row r="69" spans="2:9" ht="17.25">
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="57" t="s">
+        <v>466</v>
+      </c>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+    </row>
+    <row r="70" spans="2:9" ht="17.25">
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="57" t="s">
+        <v>475</v>
+      </c>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+    </row>
+    <row r="71" spans="2:9" ht="17.25">
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="57" t="s">
+        <v>479</v>
+      </c>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57" t="s">
+        <v>480</v>
+      </c>
+      <c r="G71" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+    </row>
+    <row r="72" spans="2:9" ht="17.25">
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="57" t="s">
+        <v>481</v>
+      </c>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="G72" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="17.25">
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="E73" s="32"/>
+      <c r="F73" s="57" t="s">
+        <v>480</v>
+      </c>
+      <c r="G73" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="A72:C72 K72:XFD72 A73:XFD1048576 A42:A51 C42:XFD51 B48:B51 A54:XFD71 A1:XFD41">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72:I72">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:B53 D52:XFD53">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:B46">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H37 H82:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C82:C1048576 C1:C37</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$I$3:$I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F37</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B82:B1048576 B1:B37</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
@@ -7330,17 +9207,17 @@
       <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:9" s="5" customFormat="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="26"/>
+      <c r="B35" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
       <c r="H35" s="7"/>
       <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:9" s="5" customFormat="1">
-      <c r="B36" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="26"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
       <c r="H36" s="7"/>
@@ -7348,7 +9225,7 @@
     </row>
     <row r="37" spans="1:9" s="5" customFormat="1">
       <c r="B37" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
@@ -7356,15 +9233,17 @@
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" s="5" customFormat="1">
-      <c r="B38" s="26"/>
+      <c r="B38" s="26" t="s">
+        <v>35</v>
+      </c>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="7"/>
       <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" s="5" customFormat="1">
-      <c r="B39" s="26" t="s">
-        <v>35</v>
+      <c r="B39" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
@@ -7378,8 +9257,8 @@
       <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9" s="5" customFormat="1">
-      <c r="B41" s="21" t="s">
-        <v>36</v>
+      <c r="B41" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
@@ -7394,7 +9273,7 @@
     </row>
     <row r="43" spans="1:9" s="5" customFormat="1">
       <c r="B43" s="5" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
@@ -7402,6 +9281,9 @@
       <c r="I43" s="23"/>
     </row>
     <row r="44" spans="1:9" s="5" customFormat="1">
+      <c r="B44" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
       <c r="H44" s="7"/>
@@ -7484,56 +9366,40 @@
     <row r="53" spans="2:9">
       <c r="B53" s="31"/>
       <c r="C53" s="32"/>
-      <c r="D53" s="32" t="s">
-        <v>469</v>
-      </c>
+      <c r="D53" s="32"/>
       <c r="E53" s="32"/>
       <c r="F53" s="33"/>
-      <c r="G53" s="32" t="s">
-        <v>465</v>
-      </c>
+      <c r="G53" s="32"/>
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
-      <c r="D54" s="32" t="s">
-        <v>464</v>
-      </c>
+      <c r="D54" s="32"/>
       <c r="E54" s="32"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="32" t="s">
-        <v>466</v>
-      </c>
+      <c r="G54" s="32"/>
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
-      <c r="D55" s="32" t="s">
-        <v>467</v>
-      </c>
+      <c r="D55" s="32"/>
       <c r="E55" s="32"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="32" t="s">
-        <v>468</v>
-      </c>
+      <c r="G55" s="32"/>
       <c r="H55" s="32"/>
       <c r="I55" s="32"/>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
-      <c r="D56" s="32" t="s">
-        <v>470</v>
-      </c>
+      <c r="D56" s="32"/>
       <c r="E56" s="32"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="32" t="s">
-        <v>465</v>
-      </c>
+      <c r="G56" s="32"/>
       <c r="H56" s="32"/>
       <c r="I56" s="32"/>
     </row>
@@ -7587,10 +9453,45 @@
       <c r="H61" s="32"/>
       <c r="I61" s="32"/>
     </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+  <conditionalFormatting sqref="A46:XFD1048576 A1:XFD37 B41 A38:A45 B38:B39 C38:XFD45">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:B45">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7602,769 +9503,7 @@
           <x14:formula1>
             <xm:f>附录!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H30 H69:H1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$A$3:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1:C30 C69:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$I$3:$I$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F30</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$E$3:$E$24</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B30 B69:B1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N64"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:L64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="4"/>
-    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="17.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="17.25">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" ht="17.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7"/>
-      <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7"/>
-      <c r="J5" s="34"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="1:14" ht="17.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
-      <c r="J6" s="34"/>
-      <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" ht="17.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-    </row>
-    <row r="8" spans="1:14" ht="17.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" ht="17.25">
-      <c r="A9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="17.25">
-      <c r="B10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="5"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" ht="17.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="17.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="5"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="7"/>
-      <c r="M13" s="34"/>
-    </row>
-    <row r="14" spans="1:14" ht="17.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="5"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="7"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="15" spans="1:14" ht="17.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="5"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="17.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="5"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" ht="17.25">
-      <c r="A17" s="14"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" ht="17.25">
-      <c r="A18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" ht="17.25">
-      <c r="B19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" ht="17.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" ht="17.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" ht="17.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" ht="17.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" ht="17.25">
-      <c r="C24" s="10"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:13" ht="17.25">
-      <c r="A25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="34"/>
-    </row>
-    <row r="27" spans="1:13" ht="17.25">
-      <c r="A27" s="11"/>
-      <c r="C27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="7"/>
-      <c r="K28" s="34"/>
-      <c r="M28" s="34"/>
-    </row>
-    <row r="29" spans="1:13" ht="17.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="7"/>
-      <c r="K29" s="34"/>
-      <c r="M29" s="34"/>
-    </row>
-    <row r="30" spans="1:13" ht="17.25">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" s="5" customFormat="1" ht="17.25">
-      <c r="A31" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" s="5" customFormat="1" ht="33">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="23"/>
-    </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" ht="33">
-      <c r="B33" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="23"/>
-    </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" ht="33">
-      <c r="A34" s="3"/>
-      <c r="B34" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="23"/>
-    </row>
-    <row r="35" spans="1:9" s="5" customFormat="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="26"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="23"/>
-    </row>
-    <row r="36" spans="1:9" s="5" customFormat="1">
-      <c r="B36" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="23"/>
-    </row>
-    <row r="37" spans="1:9" s="5" customFormat="1">
-      <c r="B37" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="1:9" s="5" customFormat="1">
-      <c r="B38" s="26"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="1:9" s="5" customFormat="1">
-      <c r="B39" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="1:9" s="5" customFormat="1">
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" spans="1:9" s="5" customFormat="1">
-      <c r="B41" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="1:9" s="5" customFormat="1">
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="23"/>
-    </row>
-    <row r="43" spans="1:9" s="5" customFormat="1">
-      <c r="B43" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="23"/>
-    </row>
-    <row r="44" spans="1:9" s="5" customFormat="1">
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="23"/>
-    </row>
-    <row r="45" spans="1:9" s="5" customFormat="1">
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="23"/>
-    </row>
-    <row r="46" spans="1:9" s="5" customFormat="1">
-      <c r="B46" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="23"/>
-    </row>
-    <row r="47" spans="1:9" s="5" customFormat="1">
-      <c r="F47" s="23"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="23"/>
-    </row>
-    <row r="48" spans="1:9" s="5" customFormat="1">
-      <c r="F48" s="23"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="23"/>
-    </row>
-    <row r="49" spans="2:11" s="5" customFormat="1">
-      <c r="F49" s="23"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="23"/>
-    </row>
-    <row r="50" spans="2:11" s="5" customFormat="1">
-      <c r="B50" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="23"/>
-    </row>
-    <row r="51" spans="2:11" s="5" customFormat="1">
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="36"/>
-    </row>
-    <row r="52" spans="2:11" s="5" customFormat="1" ht="33">
-      <c r="B52" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G52" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I52" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="17.25">
-      <c r="B53" s="31"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-    </row>
-    <row r="62" spans="2:11">
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-    </row>
-    <row r="63" spans="2:11">
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-    </row>
-    <row r="64" spans="2:11">
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD51 A65:XFD1048576 A52:A64 J52:XFD64">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:I64">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$G$3:$G$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>H1:H30 H69:H1048576</xm:sqref>
+          <xm:sqref>H69:H1048576 H1:H30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8394,8 +9533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
@@ -8833,17 +9972,17 @@
       <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:9" s="5" customFormat="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="26"/>
+      <c r="B35" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
       <c r="H35" s="7"/>
       <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:9" s="5" customFormat="1">
-      <c r="B36" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="26"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
       <c r="H36" s="7"/>
@@ -8851,7 +9990,7 @@
     </row>
     <row r="37" spans="1:9" s="5" customFormat="1">
       <c r="B37" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
@@ -8859,15 +9998,17 @@
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" s="5" customFormat="1">
-      <c r="B38" s="26"/>
+      <c r="B38" s="26" t="s">
+        <v>35</v>
+      </c>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="7"/>
       <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" s="5" customFormat="1">
-      <c r="B39" s="26" t="s">
-        <v>35</v>
+      <c r="B39" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
@@ -8881,8 +10022,8 @@
       <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9" s="5" customFormat="1">
-      <c r="B41" s="21" t="s">
-        <v>36</v>
+      <c r="B41" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
@@ -8897,7 +10038,7 @@
     </row>
     <row r="43" spans="1:9" s="5" customFormat="1">
       <c r="B43" s="5" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
@@ -8905,6 +10046,9 @@
       <c r="I43" s="23"/>
     </row>
     <row r="44" spans="1:9" s="5" customFormat="1">
+      <c r="B44" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
       <c r="H44" s="7"/>
@@ -8937,13 +10081,13 @@
       <c r="H48" s="7"/>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="2:11" s="5" customFormat="1">
+    <row r="49" spans="2:9" s="5" customFormat="1">
       <c r="F49" s="23"/>
       <c r="G49" s="27"/>
       <c r="H49" s="7"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="2:11" s="5" customFormat="1">
+    <row r="50" spans="2:9" s="5" customFormat="1">
       <c r="B50" s="5" t="s">
         <v>39</v>
       </c>
@@ -8952,13 +10096,13 @@
       <c r="H50" s="7"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="2:11" s="5" customFormat="1">
+    <row r="51" spans="2:9" s="5" customFormat="1">
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
       <c r="H51" s="7"/>
       <c r="I51" s="36"/>
     </row>
-    <row r="52" spans="2:11" s="5" customFormat="1" ht="33">
+    <row r="52" spans="2:9" s="5" customFormat="1" ht="33">
       <c r="B52" s="28" t="s">
         <v>40</v>
       </c>
@@ -8984,7 +10128,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="17.25">
+    <row r="53" spans="2:9">
       <c r="B53" s="31"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
@@ -8993,10 +10137,8 @@
       <c r="G53" s="32"/>
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="2:11">
+    </row>
+    <row r="54" spans="2:9">
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
@@ -9006,7 +10148,7 @@
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:9">
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
@@ -9016,7 +10158,7 @@
       <c r="H55" s="32"/>
       <c r="I55" s="32"/>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:9">
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
       <c r="D56" s="32"/>
@@ -9026,7 +10168,7 @@
       <c r="H56" s="32"/>
       <c r="I56" s="32"/>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:9">
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
       <c r="D57" s="32"/>
@@ -9036,7 +10178,7 @@
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:9">
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
       <c r="D58" s="32"/>
@@ -9046,7 +10188,7 @@
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:9">
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
       <c r="D59" s="32"/>
@@ -9056,7 +10198,7 @@
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:9">
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
       <c r="D60" s="32"/>
@@ -9066,7 +10208,7 @@
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:9">
       <c r="B61" s="32"/>
       <c r="C61" s="32"/>
       <c r="D61" s="32"/>
@@ -9076,7 +10218,7 @@
       <c r="H61" s="32"/>
       <c r="I61" s="32"/>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:9">
       <c r="B62" s="32"/>
       <c r="C62" s="32"/>
       <c r="D62" s="32"/>
@@ -9086,7 +10228,7 @@
       <c r="H62" s="32"/>
       <c r="I62" s="32"/>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:9">
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
@@ -9096,7 +10238,7 @@
       <c r="H63" s="32"/>
       <c r="I63" s="32"/>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:9">
       <c r="B64" s="32"/>
       <c r="C64" s="32"/>
       <c r="D64" s="32"/>
@@ -9108,18 +10250,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD51 A65:XFD1048576 A52:A64 M52:XFD64">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+  <conditionalFormatting sqref="A46:XFD1048576 A1:XFD37 B41 A38:A45 B38:B39 C38:XFD45">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52:L64">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:I64">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="B43:B45">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9131,7 +10268,7 @@
           <x14:formula1>
             <xm:f>附录!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H30 H69:H1048576</xm:sqref>
+          <xm:sqref>H69:H1048576 H1:H30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -9159,10 +10296,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48:K50"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
@@ -9600,17 +10737,17 @@
       <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:9" s="5" customFormat="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="26"/>
+      <c r="B35" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
       <c r="H35" s="7"/>
       <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:9" s="5" customFormat="1">
-      <c r="B36" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="26"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
       <c r="H36" s="7"/>
@@ -9618,7 +10755,7 @@
     </row>
     <row r="37" spans="1:9" s="5" customFormat="1">
       <c r="B37" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
@@ -9626,15 +10763,17 @@
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" s="5" customFormat="1">
-      <c r="B38" s="26"/>
+      <c r="B38" s="26" t="s">
+        <v>35</v>
+      </c>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="7"/>
       <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" s="5" customFormat="1">
-      <c r="B39" s="26" t="s">
-        <v>35</v>
+      <c r="B39" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
@@ -9642,17 +10781,14 @@
       <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:9" s="5" customFormat="1">
-      <c r="B40" s="21" t="s">
-        <v>36</v>
-      </c>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
       <c r="H40" s="7"/>
       <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9" s="5" customFormat="1">
-      <c r="B41" s="5" t="s">
-        <v>37</v>
+      <c r="B41" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
@@ -9660,9 +10796,6 @@
       <c r="I41" s="23"/>
     </row>
     <row r="42" spans="1:9" s="5" customFormat="1">
-      <c r="B42" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="7"/>
@@ -9670,7 +10803,7 @@
     </row>
     <row r="43" spans="1:9" s="5" customFormat="1">
       <c r="B43" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
@@ -9678,23 +10811,26 @@
       <c r="I43" s="23"/>
     </row>
     <row r="44" spans="1:9" s="5" customFormat="1">
+      <c r="B44" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
       <c r="H44" s="7"/>
       <c r="I44" s="23"/>
     </row>
     <row r="45" spans="1:9" s="5" customFormat="1">
-      <c r="B45" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="7"/>
       <c r="I45" s="23"/>
     </row>
     <row r="46" spans="1:9" s="5" customFormat="1">
+      <c r="B46" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="F46" s="23"/>
-      <c r="G46" s="27"/>
+      <c r="G46" s="23"/>
       <c r="H46" s="7"/>
       <c r="I46" s="23"/>
     </row>
@@ -9711,62 +10847,58 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="2:9" s="5" customFormat="1">
-      <c r="B49" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="7"/>
       <c r="I49" s="23"/>
     </row>
     <row r="50" spans="2:9" s="5" customFormat="1">
+      <c r="B50" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="36"/>
-    </row>
-    <row r="51" spans="2:9" s="5" customFormat="1" ht="33">
-      <c r="B51" s="28" t="s">
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="2:9" s="5" customFormat="1">
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="36"/>
+    </row>
+    <row r="52" spans="2:9" s="5" customFormat="1" ht="33">
+      <c r="B52" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C52" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D52" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E52" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="F52" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G51" s="37" t="s">
+      <c r="G52" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H51" s="28" t="s">
+      <c r="H52" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="I51" s="28" t="s">
+      <c r="I52" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="31"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-    </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="32"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
+      <c r="F53" s="33"/>
       <c r="G53" s="32"/>
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
@@ -9871,15 +11003,25 @@
       <c r="H63" s="32"/>
       <c r="I63" s="32"/>
     </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="A42:A44 C42:XFD44 A1:XFD41 A45:XFD1048576">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+  <conditionalFormatting sqref="A46:XFD1048576 A1:XFD37 B41 A38:A45 B38:B39 C38:XFD45">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B44">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="B43:B45">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9892,7 +11034,7 @@
           <x14:formula1>
             <xm:f>附录!$E$3:$E$24</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B30 B68:B1048576</xm:sqref>
+          <xm:sqref>B1:B30 B69:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -9904,13 +11046,13 @@
           <x14:formula1>
             <xm:f>附录!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C30 C68:C1048576</xm:sqref>
+          <xm:sqref>C1:C30 C69:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H68:H1048576 H1:H30</xm:sqref>
+          <xm:sqref>H69:H1048576 H1:H30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10190,7 +11332,7 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C26 E2:E24 G2:G5 I1:I25">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑2/Demo-里程碑2-周版本.xlsx
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="1059">
   <si>
     <t>完成</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -4639,15 +4639,9 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>dota传奇国外市场数据分析</t>
-  </si>
-  <si>
     <t>xw，小星</t>
   </si>
   <si>
-    <t>魔灵玩法划分，及体验安排</t>
-  </si>
-  <si>
     <t>Debug</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -4660,26 +4654,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Day4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>xw</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Day6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>未完成</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -4688,10 +4666,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>雷神</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>ts</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -4700,10 +4674,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>道具系统测试用例走读</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>完成</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -4732,14 +4702,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>进程分表，切进程实现</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Day3</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -4748,10 +4710,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Day6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>帅帅</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -4764,10 +4722,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Day4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>超额</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -4784,17 +4738,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>九尾狐草图1 兔子草图2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>草图细化</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>day5</t>
-  </si>
-  <si>
     <t>测试原画迭代修改</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -4819,58 +4766,22 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Day4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本数值配置（d1）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本ai配置（D3）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本结构配置（D2）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能逻辑，表现配置调整（D3）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>物理、法术大招验收（D2），配置</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>进程切换，自动换状态机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>xw</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Day2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>里程碑目标制定（D2初版）</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Day6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>世界观</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Day5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>xw</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -4883,10 +4794,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>SW，BF问卷调查分析（xw，mt讨论安排）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>debug-大招</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -4899,10 +4806,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Day6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>超额</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -4935,10 +4838,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Day6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>提交QA</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -4951,10 +4850,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Day 5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>0.2版本对局烟雾测试</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -4967,10 +4862,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Day2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>对局流程-切进程功能测试，复查bug</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -4991,19 +4882,11 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Day4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>大招UI切图，调整</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day1</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -5066,10 +4949,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Day2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>胖子</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -5078,10 +4957,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>联合调试（xw确认是否d3能完成）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>策划如果D3完成，D4休息  程序看需求（保证里程碑内容）  测试D3完成D4测  美术D3，D4上班</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -5135,6 +5010,419 @@
   </si>
   <si>
     <t>6月18日</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神，ts</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神，ts</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts，雷神</t>
+    <rPh sb="3" eb="4">
+      <t>lei'shen</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-508</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-509</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-511</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-510</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-513</t>
+  </si>
+  <si>
+    <t>MG-512</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-514</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-515</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-516</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-517</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-518</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾狐草图1 兔子草图2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-519</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-520</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-521</t>
+  </si>
+  <si>
+    <t>MG-522</t>
+  </si>
+  <si>
+    <t>MG-523</t>
+  </si>
+  <si>
+    <t>MG-524</t>
+  </si>
+  <si>
+    <t>MG-525</t>
+  </si>
+  <si>
+    <t>MG-504</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-505</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-507</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>V0.2对局-副本数值配置（d1）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>V0.2对局-副本ai配置（D3）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>V0.2对局-技能逻辑，表现配置调整（D3）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>V0.2对局-副本结构配置（D2）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程切换，自动换状态机验收</t>
+    <rPh sb="11" eb="12">
+      <t>yan'shou</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>V0.2对局-联合调试（xw确认是否d3能完成）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>dota传奇国外市场数据分析</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔灵玩法划分，及体验安排</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW，BF问卷调查分析（xw，mt讨论安排）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-526</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-528</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-529</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-530</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-531 MG-532</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-533</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-534</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-535 MG-536</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-537 MG-538</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-539 MG-540</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-541</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-542</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-543</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>进程分表，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>切进程实现，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弱点死亡事件</t>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>ruo'dian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>si'wang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务刷新</t>
+    <rPh sb="2" eb="3">
+      <t>shua'xin</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-456</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有问题</t>
+    <rPh sb="0" eb="1">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整目录结构后一起整理，目前不限制权限，与策划约定提交规则</t>
+    <rPh sb="0" eb="1">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu'lu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'gou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi'qi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mu'qian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xian'zhi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>quan'xian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yue'ding</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>gui'ze</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-545 MG-546</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-502 MG-544</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>未提交，等D6</t>
+    <rPh sb="0" eb="1">
+      <t>wei'ti'jiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5完成</t>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期，新增其他工作</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gong'zuo</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>已发任务MG-516</t>
+    <rPh sb="0" eb="1">
+      <t>yi'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>未拆分，依赖策划需求，下里程碑继续</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>chai'fen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'lai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xia'li'cheng'bei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ji'xu</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点死亡状态机切换</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局功能优化-结构、遮挡、通用控件</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -5142,7 +5430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -5345,6 +5633,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5378,7 +5673,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5592,6 +5887,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5892,7 +6193,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1">
@@ -5910,8 +6210,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="93">
     <cellStyle name="常规 10 2 2 2" xfId="1"/>
     <cellStyle name="常规 10 2 2 2 2" xfId="14"/>
     <cellStyle name="常规 10 2 2 2 2 2" xfId="69"/>
@@ -5966,6 +6269,7 @@
     <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
@@ -6002,20 +6306,10 @@
     <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="65">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6038,41 +6332,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color indexed="60"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6718,22 +6983,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="5-27周输出"/>
-      <sheetName val="6-3周输出"/>
-      <sheetName val="6-10周输出"/>
-      <sheetName val="6-17周输出"/>
-      <sheetName val="6-24周输出"/>
-      <sheetName val="模板"/>
       <sheetName val="附录"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8767,22 +9020,22 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="E58:E61 D54:E56 D57:D60 A54:C61 A80:C83 D82 A62:XFD78 A79:D79 E79:XFD80 E82:XFD83 F81:XFD81 A84:XFD1048576 A45:F45 A38:XFD44 H45:XFD45 B7:B10 B1:B3 E1:E2 C1:D6 E5:E8 B12:B17 B20:B22 A1:A26 F1:XFD6 A36:A37 C36:XFD37 A31:XFD35 A29:A30 C29:XFD30 B30 A46:XFD53 G54:XFD61 H3:H7 C7:XFD26 A27:XFD28">
-    <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80:D81">
-    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F61">
-    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10854,7 +11107,7 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="E34:XFD36 A34:C38 D29:G29 A26:C29 D34 D36:D38 H26:XFD29 B18:B23 B1:B16 A1:A23 C1:E23 A55:F55 A30:XFD33 C26:F28 A24:XFD25 F18:F23 F1:F16 A98:B100 D98:XFD104 A101:C105 F105:XFD105 A115:XFD1048576 A108:D114 F108:XFD114 A106:XFD107 E38:XFD38 E37:J37 L37:XFD37 A53:G54 A56:G68 H53:XFD68 G1:G23 I1:XFD23 H1:H16 H18:H29 A69:XFD97 A39:XFD52">
-    <cfRule type="cellIs" dxfId="58" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="12" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13209,107 +13462,107 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="K113:XFD113 A81:A90 B87:B90 A18:C18 A47 A91:B92 B81:B85 C81:XFD87 F18:G18 A114:XFD1048576 A113:I113 H28:H29 A28:F29 A1:XFD4 A5:E5 G5 A6:G17 F3:F12 A19:G27 L5:XFD27 A30:H36 M28:XFD45 N53:XFD73 G53:G54 I46:XFD52 C47:D47 A56:H56 F47:F54 A37:D46 A48:D55 G47 G50:G51 E37:E55 F37:G46 F55:G55 D92:G92 D91:XFD91 I92:XFD92 C89:XFD90 C88:E88 G88:XFD88 A93:XFD95 A97:XFD112 A96:D96 F96:XFD96 A66:H66 A57:G65 A70:H70 A67:G69 A75:XFD80 A71:G74 J74:XFD74 H74 J72:M72 H72 K73:M73">
-    <cfRule type="cellIs" dxfId="57" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="31" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:K27">
-    <cfRule type="cellIs" dxfId="56" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="21" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:L45">
-    <cfRule type="cellIs" dxfId="55" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="20" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:M70 J71:M71">
-    <cfRule type="cellIs" dxfId="54" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88">
-    <cfRule type="cellIs" dxfId="53" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="18" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="52" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="51" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="50" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="48" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="47" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="12" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="46" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="10" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:H51">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13327,7 +13580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R559"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="139" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
       <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
@@ -14209,7 +14462,7 @@
         <v>831</v>
       </c>
       <c r="H33" s="107" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="I33" s="105"/>
       <c r="J33" s="100" t="s">
@@ -14239,7 +14492,7 @@
         <v>830</v>
       </c>
       <c r="H34" s="107" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="I34" s="105"/>
       <c r="J34" s="100" t="s">
@@ -14269,7 +14522,7 @@
         <v>838</v>
       </c>
       <c r="H35" s="107" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="I35" s="105"/>
       <c r="J35" s="100"/>
@@ -14299,7 +14552,7 @@
         <v>818</v>
       </c>
       <c r="H36" s="107" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="I36" s="105"/>
       <c r="J36" s="100" t="s">
@@ -14329,7 +14582,7 @@
         <v>840</v>
       </c>
       <c r="H37" s="107" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="I37" s="105"/>
       <c r="J37" s="100"/>
@@ -14377,7 +14630,7 @@
         <v>839</v>
       </c>
       <c r="H39" s="107" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="I39" s="105"/>
       <c r="J39" s="100"/>
@@ -14404,7 +14657,7 @@
         <v>845</v>
       </c>
       <c r="H40" s="107" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="I40" s="105"/>
       <c r="J40" s="100"/>
@@ -14451,7 +14704,7 @@
       </c>
       <c r="G42" s="107"/>
       <c r="H42" s="100" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="I42" s="100"/>
       <c r="J42" s="100"/>
@@ -14483,7 +14736,7 @@
         <v>844</v>
       </c>
       <c r="H43" s="100" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="I43" s="100"/>
       <c r="J43" s="100"/>
@@ -14533,7 +14786,7 @@
         <v>849</v>
       </c>
       <c r="H45" s="100" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="I45" s="100" t="s">
         <v>392</v>
@@ -14565,7 +14818,7 @@
         <v>848</v>
       </c>
       <c r="H46" s="100" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="I46" s="100"/>
       <c r="J46" s="100"/>
@@ -14597,7 +14850,7 @@
         <v>699</v>
       </c>
       <c r="H47" s="100" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="I47" s="100"/>
       <c r="J47" s="100"/>
@@ -14624,7 +14877,7 @@
       </c>
       <c r="G48" s="107"/>
       <c r="H48" s="100" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="I48" s="100"/>
       <c r="J48" s="100"/>
@@ -14649,7 +14902,7 @@
       </c>
       <c r="G49" s="107"/>
       <c r="H49" s="100" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="I49" s="100"/>
       <c r="J49" s="100"/>
@@ -14834,10 +15087,10 @@
         <v>837</v>
       </c>
       <c r="H55" s="107" t="s">
-        <v>915</v>
-      </c>
-      <c r="I55" s="119" t="s">
-        <v>916</v>
+        <v>909</v>
+      </c>
+      <c r="I55" s="118" t="s">
+        <v>910</v>
       </c>
       <c r="J55" s="100"/>
       <c r="K55" s="100"/>
@@ -15043,7 +15296,7 @@
       </c>
       <c r="G62" s="107"/>
       <c r="H62" s="107" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="I62" s="100" t="s">
         <v>392</v>
@@ -15073,7 +15326,7 @@
       </c>
       <c r="G63" s="107"/>
       <c r="H63" s="107" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="I63" s="100"/>
       <c r="J63" s="100" t="s">
@@ -15106,7 +15359,7 @@
         <v>878</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="I64" s="100"/>
       <c r="J64" s="100"/>
@@ -15138,7 +15391,7 @@
       </c>
       <c r="G65" s="107"/>
       <c r="H65" s="107" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="I65" s="100"/>
       <c r="J65" s="100"/>
@@ -15168,7 +15421,7 @@
       </c>
       <c r="G66" s="107"/>
       <c r="H66" s="7" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="I66" s="100"/>
       <c r="J66" s="100"/>
@@ -15229,7 +15482,7 @@
         <v>880</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="I68" s="100"/>
       <c r="J68" s="100"/>
@@ -19172,137 +19425,137 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="B80 A77:A84 B77:B78 C78:I81 B82:I84 A67 C67:E67 A68:E76 A32:I32 A85:C92 E85:I92 D85:D90 A60:E62 C52 A52 C77:E77 A33:A50 A104 A560:XFD1048576 A93:I103 A53:C59 F33:I37 F38 H38:I38 A6:F6 A1:XFD1 A18:D26 B28:F30 G2:G30 G39:I40 A105:I559 O2:XFD40 O74:XFD559 Q41:XFD50 G74:I77 G41:G57 S51:XFD62 F67:F69 G72:XFD73 A63:F66 H63:XFD71 H60:H62 N6:O6 A2:I5 H6:L6 A7:I17 F18:I26 G27:I31">
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:D27 F27 B31 F31">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42:F47">
-    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="25" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F62">
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="24" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F41 F48:F50 F70:F77">
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:C51 B33:E50">
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:G104 I104">
-    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E27">
-    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:F59">
-    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74:N559 I2:O5 I7:O23 I6 J7:N40">
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:P50">
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:R62 J51:R59">
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:G71">
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:I59">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19318,10 +19571,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="235" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:XFD95"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -19331,7 +19587,11 @@
     <col min="3" max="3" width="10.1640625" style="98"/>
     <col min="4" max="4" width="49.33203125" style="98" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="98" customWidth="1"/>
-    <col min="6" max="16384" width="10.1640625" style="98"/>
+    <col min="6" max="6" width="10.1640625" style="98"/>
+    <col min="7" max="7" width="10.1640625" style="27"/>
+    <col min="8" max="8" width="10.1640625" style="98"/>
+    <col min="9" max="14" width="10.1640625" style="27"/>
+    <col min="15" max="16384" width="10.1640625" style="98"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -19350,28 +19610,28 @@
       <c r="F1" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="24" t="s">
         <v>541</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="24" t="s">
         <v>544</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="24" t="s">
         <v>584</v>
       </c>
     </row>
@@ -19384,746 +19644,948 @@
       <c r="D2" s="96"/>
       <c r="E2" s="96"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="107"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="96"/>
-      <c r="B3" s="96" t="s">
-        <v>980</v>
-      </c>
-      <c r="C3" s="96" t="s">
-        <v>948</v>
-      </c>
-      <c r="D3" s="96" t="s">
-        <v>981</v>
-      </c>
-      <c r="E3" s="96" t="s">
-        <v>982</v>
+      <c r="B3" s="98" t="s">
+        <v>900</v>
+      </c>
+      <c r="C3" s="112" t="s">
+        <v>550</v>
+      </c>
+      <c r="D3" s="113" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E3" s="113" t="s">
+        <v>655</v>
       </c>
       <c r="F3" s="107" t="s">
-        <v>983</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+        <v>920</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="112" t="s">
+        <v>550</v>
+      </c>
+      <c r="D4" s="114" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E4" s="114" t="s">
+        <v>655</v>
+      </c>
+      <c r="F4" s="107" t="s">
+        <v>920</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="96"/>
-      <c r="B5" s="98" t="s">
-        <v>900</v>
-      </c>
-      <c r="C5" s="113" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="112" t="s">
         <v>550</v>
       </c>
       <c r="D5" s="114" t="s">
-        <v>951</v>
+        <v>1020</v>
       </c>
       <c r="E5" s="114" t="s">
-        <v>655</v>
+        <v>109</v>
       </c>
       <c r="F5" s="107" t="s">
-        <v>910</v>
-      </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="107"/>
-      <c r="K5" s="102"/>
-    </row>
-    <row r="6" spans="1:14">
+        <v>920</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:14" ht="32">
       <c r="A6" s="96"/>
       <c r="B6" s="101"/>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="112" t="s">
         <v>550</v>
       </c>
-      <c r="D6" s="115" t="s">
-        <v>952</v>
-      </c>
-      <c r="E6" s="115" t="s">
-        <v>655</v>
+      <c r="D6" s="114" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E6" s="114" t="s">
+        <v>901</v>
       </c>
       <c r="F6" s="107" t="s">
-        <v>910</v>
-      </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="107"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
+        <v>920</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="96"/>
       <c r="B7" s="101"/>
-      <c r="C7" s="113" t="s">
-        <v>550</v>
-      </c>
-      <c r="D7" s="115" t="s">
-        <v>953</v>
-      </c>
-      <c r="E7" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="107" t="s">
-        <v>910</v>
-      </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="107"/>
-      <c r="J7" s="102"/>
-      <c r="L7" s="102"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="96"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="113" t="s">
-        <v>550</v>
-      </c>
-      <c r="D8" s="115" t="s">
-        <v>954</v>
-      </c>
-      <c r="E8" s="115" t="s">
-        <v>901</v>
+      <c r="B8" s="116" t="s">
+        <v>933</v>
+      </c>
+      <c r="C8" s="117" t="s">
+        <v>934</v>
+      </c>
+      <c r="D8" s="116" t="s">
+        <v>936</v>
+      </c>
+      <c r="E8" s="116" t="s">
+        <v>935</v>
       </c>
       <c r="F8" s="107" t="s">
-        <v>910</v>
-      </c>
-      <c r="G8" s="100"/>
-      <c r="H8" s="107"/>
-      <c r="J8" s="102"/>
-      <c r="L8" s="102"/>
+        <v>920</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="96"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="107"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="117" t="s">
+        <v>934</v>
+      </c>
+      <c r="D9" s="116" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E9" s="116" t="s">
+        <v>975</v>
+      </c>
+      <c r="F9" s="107" t="s">
+        <v>544</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="96"/>
-      <c r="B10" s="117" t="s">
-        <v>947</v>
-      </c>
-      <c r="C10" s="118" t="s">
-        <v>948</v>
-      </c>
-      <c r="D10" s="117" t="s">
-        <v>955</v>
-      </c>
-      <c r="E10" s="117" t="s">
-        <v>949</v>
-      </c>
-      <c r="F10" s="107" t="s">
-        <v>950</v>
-      </c>
-      <c r="G10" s="100"/>
-      <c r="H10" s="107"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="96"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="118" t="s">
-        <v>948</v>
-      </c>
-      <c r="D11" s="117" t="s">
+      <c r="B11" s="98" t="s">
+        <v>954</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="98" t="s">
+        <v>955</v>
+      </c>
+      <c r="E11" s="98" t="s">
         <v>956</v>
       </c>
-      <c r="E11" s="117" t="s">
-        <v>1006</v>
-      </c>
       <c r="F11" s="107" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G11" s="100"/>
-      <c r="H11" s="107"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
+        <v>994</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="96"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="107"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" ht="32">
       <c r="A13" s="96"/>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="114" t="s">
         <v>902</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="115" t="s">
         <v>903</v>
       </c>
-      <c r="D13" s="115" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E13" s="115" t="s">
-        <v>1007</v>
+      <c r="D13" s="114" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E13" s="114" t="s">
+        <v>976</v>
       </c>
       <c r="F13" s="107" t="s">
-        <v>910</v>
-      </c>
-      <c r="G13" s="100"/>
-      <c r="H13" s="107"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-    </row>
-    <row r="14" spans="1:14">
+        <v>920</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="32">
       <c r="A14" s="96"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="118" t="s">
+      <c r="B14" s="114"/>
+      <c r="C14" s="117" t="s">
         <v>550</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="116" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E14" s="116" t="s">
         <v>904</v>
       </c>
-      <c r="E14" s="117" t="s">
-        <v>905</v>
-      </c>
       <c r="F14" s="107" t="s">
-        <v>912</v>
-      </c>
-      <c r="G14" s="100"/>
-      <c r="H14" s="107"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-    </row>
-    <row r="15" spans="1:14">
+        <v>584</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="1:14" ht="32">
       <c r="A15" s="96"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="118" t="s">
+      <c r="B15" s="114"/>
+      <c r="C15" s="117" t="s">
         <v>550</v>
       </c>
-      <c r="D15" s="117" t="s">
-        <v>906</v>
-      </c>
-      <c r="E15" s="117" t="s">
-        <v>909</v>
+      <c r="D15" s="116" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E15" s="116" t="s">
+        <v>907</v>
       </c>
       <c r="F15" s="107" t="s">
-        <v>913</v>
-      </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="107"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
+        <v>584</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="96"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="118" t="s">
+      <c r="B16" s="114"/>
+      <c r="C16" s="117" t="s">
         <v>550</v>
       </c>
-      <c r="D16" s="117" t="s">
-        <v>959</v>
-      </c>
-      <c r="E16" s="117" t="s">
-        <v>911</v>
+      <c r="D16" s="116" t="s">
+        <v>938</v>
+      </c>
+      <c r="E16" s="116" t="s">
+        <v>908</v>
       </c>
       <c r="F16" s="107" t="s">
-        <v>960</v>
-      </c>
-      <c r="G16" s="100"/>
-      <c r="H16" s="107"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-    </row>
-    <row r="17" spans="1:13">
+        <v>584</v>
+      </c>
+      <c r="G16" s="73" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="M16" s="27" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="96"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="118" t="s">
-        <v>948</v>
-      </c>
-      <c r="D17" s="117" t="s">
-        <v>961</v>
-      </c>
-      <c r="E17" s="117" t="s">
-        <v>963</v>
+      <c r="B17" s="116"/>
+      <c r="C17" s="117" t="s">
+        <v>934</v>
+      </c>
+      <c r="D17" s="116" t="s">
+        <v>939</v>
+      </c>
+      <c r="E17" s="116" t="s">
+        <v>940</v>
       </c>
       <c r="F17" s="107" t="s">
-        <v>962</v>
-      </c>
-      <c r="G17" s="100"/>
-      <c r="H17" s="107"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-    </row>
-    <row r="18" spans="1:13">
+        <v>547</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="N17" s="27" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="96"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="118" t="s">
-        <v>948</v>
-      </c>
-      <c r="D18" s="117" t="s">
-        <v>966</v>
-      </c>
-      <c r="E18" s="117" t="s">
-        <v>965</v>
+      <c r="B18" s="116"/>
+      <c r="C18" s="117" t="s">
+        <v>934</v>
+      </c>
+      <c r="D18" s="116" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E18" s="116" t="s">
+        <v>942</v>
       </c>
       <c r="F18" s="107"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="107"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="G18" s="73" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="M18" s="27" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="96"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="107"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="107"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="G19" s="73"/>
+      <c r="H19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="96"/>
-      <c r="B20" s="117" t="s">
-        <v>907</v>
+      <c r="B20" s="116" t="s">
+        <v>905</v>
       </c>
       <c r="C20" s="98" t="s">
         <v>903</v>
       </c>
       <c r="D20" s="98" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F20" s="107" t="s">
-        <v>914</v>
-      </c>
-      <c r="G20" s="100"/>
-      <c r="H20" s="107"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-    </row>
-    <row r="21" spans="1:13">
+        <v>584</v>
+      </c>
+      <c r="G20" s="73"/>
+      <c r="H20" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="96"/>
       <c r="C21" s="82"/>
       <c r="D21" s="107"/>
       <c r="E21" s="107"/>
       <c r="F21" s="107"/>
-      <c r="G21" s="82"/>
+      <c r="G21" s="117"/>
       <c r="H21" s="107"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" s="108" t="s">
         <v>557</v>
       </c>
       <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
+      <c r="G22" s="74"/>
       <c r="H22" s="107"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="B23" s="12" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="D23" s="98" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="E23" s="98" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="H23" s="107"/>
-    </row>
-    <row r="24" spans="1:13">
+        <v>543</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>995</v>
+      </c>
+      <c r="H23" s="107" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="B24" s="12"/>
       <c r="C24" s="13" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>928</v>
+        <v>1039</v>
       </c>
       <c r="E24" s="98" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>929</v>
-      </c>
-      <c r="H24" s="107"/>
-    </row>
-    <row r="25" spans="1:13">
+        <v>543</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>996</v>
+      </c>
+      <c r="H24" s="107" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="B25" s="12"/>
       <c r="C25" s="13" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>927</v>
+        <v>943</v>
       </c>
       <c r="E25" s="98" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F25" s="98" t="s">
-        <v>930</v>
-      </c>
-      <c r="H25" s="107"/>
-    </row>
-    <row r="26" spans="1:13">
+        <v>584</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>997</v>
+      </c>
+      <c r="H25" s="107" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="B26" s="12"/>
       <c r="C26" s="13" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="E26" s="98" t="s">
-        <v>931</v>
+        <v>944</v>
       </c>
       <c r="F26" s="98" t="s">
-        <v>932</v>
-      </c>
-      <c r="H26" s="107"/>
-    </row>
-    <row r="27" spans="1:13">
+        <v>584</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>998</v>
+      </c>
+      <c r="H26" s="107" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="B27" s="12"/>
       <c r="C27" s="13" t="s">
-        <v>948</v>
+        <v>915</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>969</v>
+        <v>923</v>
       </c>
       <c r="E27" s="98" t="s">
-        <v>968</v>
+        <v>922</v>
       </c>
       <c r="F27" s="98" t="s">
-        <v>970</v>
-      </c>
-      <c r="H27" s="107"/>
-    </row>
-    <row r="28" spans="1:13">
+        <v>543</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="107" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>706</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N27" s="27" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="B28" s="12"/>
       <c r="C28" s="13" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>934</v>
+        <v>952</v>
       </c>
       <c r="E28" s="98" t="s">
-        <v>933</v>
+        <v>953</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>929</v>
-      </c>
-      <c r="H28" s="107"/>
-    </row>
-    <row r="29" spans="1:13">
+        <v>584</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>999</v>
+      </c>
+      <c r="H28" s="107" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="B29" s="12"/>
       <c r="C29" s="13" t="s">
-        <v>948</v>
+        <v>500</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>977</v>
+        <v>1056</v>
       </c>
       <c r="E29" s="98" t="s">
-        <v>978</v>
-      </c>
-      <c r="F29" s="98" t="s">
-        <v>979</v>
-      </c>
-      <c r="H29" s="107"/>
-    </row>
-    <row r="30" spans="1:13">
+        <v>399</v>
+      </c>
+      <c r="H29" s="107" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="B30" s="12" t="s">
-        <v>964</v>
+        <v>941</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="E30" s="98" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="F30" s="98" t="s">
-        <v>936</v>
-      </c>
-      <c r="H30" s="107"/>
-    </row>
-    <row r="31" spans="1:13">
+        <v>546</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H30" s="107" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N30" s="27" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="108"/>
       <c r="B31" s="12"/>
       <c r="C31" s="98" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="D31" s="98" t="s">
-        <v>974</v>
+        <v>949</v>
       </c>
       <c r="E31" s="98" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="F31" s="98" t="s">
-        <v>932</v>
-      </c>
-      <c r="H31" s="107"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="54"/>
-      <c r="B32" s="15" t="s">
-        <v>559</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H31" s="107" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="12"/>
       <c r="C32" s="13" t="s">
-        <v>550</v>
+        <v>915</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>938</v>
+        <v>919</v>
       </c>
       <c r="E32" s="98" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>932</v>
-      </c>
-      <c r="G32" s="102"/>
-      <c r="H32" s="107"/>
-      <c r="M32" s="102"/>
+        <v>920</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H32" s="107" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="54"/>
+      <c r="B33" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="C33" s="13" t="s">
-        <v>971</v>
+        <v>550</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>972</v>
+        <v>926</v>
       </c>
       <c r="E33" s="98" t="s">
-        <v>973</v>
-      </c>
-      <c r="H33" s="107"/>
+        <v>927</v>
+      </c>
+      <c r="F33" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H33" s="107" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="M33" s="26"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="54"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="H34" s="107"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E34" s="98" t="s">
+        <v>334</v>
+      </c>
+      <c r="F34" s="98" t="s">
+        <v>584</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H34" s="107" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M34" s="26"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="108" t="s">
+      <c r="A35" s="54"/>
+      <c r="C35" s="13" t="s">
+        <v>946</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>947</v>
+      </c>
+      <c r="E35" s="98" t="s">
+        <v>948</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H35" s="107"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="54"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="H36" s="107"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="108" t="s">
         <v>560</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="H35" s="107"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="B36" s="98" t="s">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="H37" s="107"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="B38" s="98" t="s">
         <v>586</v>
       </c>
-      <c r="C36" s="118" t="s">
+      <c r="C38" s="117" t="s">
         <v>550</v>
       </c>
-      <c r="D36" s="98" t="s">
-        <v>988</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>917</v>
-      </c>
-      <c r="F36" s="111" t="s">
-        <v>584</v>
-      </c>
-      <c r="G36" s="111"/>
-      <c r="H36" s="107"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="108"/>
-      <c r="C37" s="118" t="s">
-        <v>550</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>989</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>917</v>
-      </c>
-      <c r="F37" s="111" t="s">
-        <v>584</v>
-      </c>
-      <c r="G37" s="111"/>
-      <c r="H37" s="107"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="54"/>
-      <c r="B38" s="98" t="s">
-        <v>608</v>
-      </c>
-      <c r="C38" s="118" t="s">
-        <v>550</v>
-      </c>
       <c r="D38" s="98" t="s">
-        <v>984</v>
+        <v>960</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>918</v>
+        <v>991</v>
       </c>
       <c r="F38" s="111" t="s">
         <v>584</v>
       </c>
-      <c r="G38" s="112"/>
-      <c r="H38" s="107"/>
+      <c r="G38" s="75" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>1052</v>
+      </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="54"/>
-      <c r="B39" s="98" t="s">
-        <v>555</v>
-      </c>
-      <c r="C39" s="118" t="s">
-        <v>554</v>
-      </c>
-      <c r="D39" s="98" t="s">
-        <v>919</v>
-      </c>
-      <c r="E39" s="98" t="s">
-        <v>918</v>
+      <c r="A39" s="108"/>
+      <c r="C39" s="117" t="s">
+        <v>550</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>961</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>992</v>
       </c>
       <c r="F39" s="111" t="s">
         <v>584</v>
       </c>
-      <c r="G39" s="111"/>
-      <c r="H39" s="107"/>
+      <c r="G39" s="75" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="108"/>
-      <c r="C40" s="118" t="s">
-        <v>554</v>
+      <c r="A40" s="54"/>
+      <c r="B40" s="98" t="s">
+        <v>608</v>
+      </c>
+      <c r="C40" s="117" t="s">
+        <v>550</v>
       </c>
       <c r="D40" s="98" t="s">
-        <v>920</v>
+        <v>957</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>917</v>
+        <v>993</v>
       </c>
       <c r="F40" s="111" t="s">
         <v>584</v>
       </c>
-      <c r="G40" s="111"/>
-      <c r="H40" s="107"/>
+      <c r="G40" s="76" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="C41" s="118" t="s">
-        <v>986</v>
+      <c r="A41" s="54"/>
+      <c r="B41" s="98" t="s">
+        <v>555</v>
+      </c>
+      <c r="C41" s="117" t="s">
+        <v>959</v>
       </c>
       <c r="D41" s="98" t="s">
-        <v>985</v>
+        <v>958</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>96</v>
       </c>
       <c r="F41" s="111" t="s">
-        <v>987</v>
-      </c>
-      <c r="H41" s="107"/>
+        <v>544</v>
+      </c>
+      <c r="G41" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="C42" s="118"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="111"/>
-      <c r="H42" s="107"/>
+      <c r="C42" s="117" t="s">
+        <v>554</v>
+      </c>
+      <c r="D42" s="98" t="s">
+        <v>912</v>
+      </c>
+      <c r="E42" s="98" t="s">
+        <v>911</v>
+      </c>
+      <c r="F42" s="111" t="s">
+        <v>584</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H42" s="107" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="108" t="s">
+      <c r="H43" s="107"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="108" t="s">
         <v>562</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="107"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="108"/>
-      <c r="B44" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="C44" s="98" t="s">
-        <v>550</v>
-      </c>
-      <c r="D44" s="98" t="s">
-        <v>940</v>
-      </c>
-      <c r="E44" s="98" t="s">
-        <v>743</v>
-      </c>
-      <c r="F44" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="G44" s="23"/>
+      <c r="B44" s="21"/>
+      <c r="F44" s="55"/>
       <c r="H44" s="107"/>
-      <c r="I44" s="102"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="108"/>
+      <c r="B45" s="21" t="s">
+        <v>555</v>
+      </c>
       <c r="C45" s="98" t="s">
         <v>550</v>
       </c>
       <c r="D45" s="98" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="E45" s="98" t="s">
-        <v>476</v>
+        <v>743</v>
       </c>
       <c r="F45" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="G45" s="23"/>
-      <c r="H45" s="107"/>
+        <v>544</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H45" s="107" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I45" s="26"/>
+      <c r="J45" s="27" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="108"/>
-      <c r="B46" s="21"/>
       <c r="C46" s="98" t="s">
         <v>550</v>
       </c>
       <c r="D46" s="98" t="s">
-        <v>942</v>
+        <v>1006</v>
       </c>
       <c r="E46" s="98" t="s">
-        <v>743</v>
+        <v>476</v>
       </c>
       <c r="F46" s="111" t="s">
-        <v>943</v>
-      </c>
-      <c r="H46" s="107"/>
-      <c r="K46" s="102"/>
-      <c r="M46" s="102"/>
+        <v>544</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H46" s="107" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="108"/>
@@ -20132,646 +20594,656 @@
         <v>550</v>
       </c>
       <c r="D47" s="98" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="E47" s="98" t="s">
-        <v>476</v>
+        <v>743</v>
       </c>
       <c r="F47" s="111" t="s">
-        <v>943</v>
-      </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="107"/>
-      <c r="K47" s="102"/>
-      <c r="M47" s="102"/>
+        <v>547</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H47" s="107" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K47" s="26"/>
+      <c r="M47" s="26" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="108"/>
       <c r="B48" s="21"/>
       <c r="C48" s="98" t="s">
-        <v>991</v>
+        <v>550</v>
       </c>
       <c r="D48" s="98" t="s">
-        <v>990</v>
+        <v>929</v>
       </c>
       <c r="E48" s="98" t="s">
-        <v>992</v>
+        <v>476</v>
       </c>
       <c r="F48" s="111" t="s">
-        <v>993</v>
-      </c>
-      <c r="G48" s="23"/>
-      <c r="H48" s="107"/>
-      <c r="K48" s="102"/>
-      <c r="M48" s="102"/>
+        <v>547</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H48" s="107" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K48" s="26"/>
+      <c r="M48" s="26" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="108"/>
       <c r="B49" s="21"/>
       <c r="C49" s="98" t="s">
-        <v>948</v>
+        <v>963</v>
       </c>
       <c r="D49" s="98" t="s">
-        <v>994</v>
+        <v>962</v>
       </c>
       <c r="E49" s="98" t="s">
-        <v>995</v>
+        <v>964</v>
       </c>
       <c r="F49" s="111" t="s">
-        <v>996</v>
-      </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="107"/>
-      <c r="K49" s="102"/>
-      <c r="M49" s="102"/>
+        <v>546</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H49" s="107" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K49" s="26"/>
+      <c r="M49" s="26" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="108"/>
       <c r="B50" s="21"/>
       <c r="C50" s="98" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="D50" s="98" t="s">
-        <v>997</v>
+        <v>965</v>
       </c>
       <c r="E50" s="98" t="s">
-        <v>998</v>
+        <v>966</v>
       </c>
       <c r="F50" s="111" t="s">
-        <v>958</v>
-      </c>
-      <c r="G50" s="23"/>
-      <c r="H50" s="107"/>
-      <c r="K50" s="102"/>
-      <c r="M50" s="102"/>
+        <v>543</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H50" s="107" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I50" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="K50" s="26"/>
+      <c r="M50" s="26"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="C51" s="118" t="s">
+      <c r="A51" s="108"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="98" t="s">
+        <v>934</v>
+      </c>
+      <c r="D51" s="98" t="s">
+        <v>967</v>
+      </c>
+      <c r="E51" s="98" t="s">
+        <v>968</v>
+      </c>
+      <c r="F51" s="111" t="s">
+        <v>544</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H51" s="107" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J51" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="K51" s="26"/>
+      <c r="M51" s="26"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="C52" s="117" t="s">
         <v>554</v>
       </c>
-      <c r="D51" s="98" t="s">
-        <v>944</v>
-      </c>
-      <c r="E51" s="98" t="s">
-        <v>945</v>
-      </c>
-      <c r="F51" s="98" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="107"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="C52" s="118"/>
+      <c r="D52" s="98" t="s">
+        <v>930</v>
+      </c>
+      <c r="E52" s="98" t="s">
+        <v>931</v>
+      </c>
+      <c r="F52" s="98" t="s">
+        <v>584</v>
+      </c>
       <c r="H52" s="107"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="24" t="s">
+      <c r="C53" s="117"/>
+      <c r="H53" s="107"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="24" t="s">
         <v>564</v>
       </c>
-      <c r="H53" s="107"/>
-      <c r="I53" s="23"/>
-    </row>
-    <row r="54" spans="1:13" ht="32">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26" t="s">
+      <c r="H54" s="107"/>
+    </row>
+    <row r="55" spans="1:13" ht="32">
+      <c r="A55" s="25"/>
+      <c r="B55" s="26" t="s">
         <v>565</v>
-      </c>
-      <c r="D54" s="98" t="s">
-        <v>566</v>
-      </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="23"/>
-    </row>
-    <row r="55" spans="1:13" ht="32">
-      <c r="B55" s="26" t="s">
-        <v>567</v>
       </c>
       <c r="D55" s="98" t="s">
         <v>566</v>
       </c>
       <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
       <c r="H55" s="107"/>
-      <c r="I55" s="23"/>
     </row>
     <row r="56" spans="1:13" ht="32">
-      <c r="A56" s="96"/>
       <c r="B56" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D56" s="98" t="s">
         <v>566</v>
       </c>
       <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
       <c r="H56" s="107"/>
-      <c r="I56" s="23"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="B57" s="98" t="s">
+    </row>
+    <row r="57" spans="1:13" ht="32">
+      <c r="A57" s="96"/>
+      <c r="B57" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="D57" s="98" t="s">
+        <v>566</v>
+      </c>
+      <c r="F57" s="23"/>
+      <c r="H57" s="107"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="B58" s="98" t="s">
         <v>573</v>
       </c>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="23"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="B58" s="26" t="s">
-        <v>569</v>
-      </c>
       <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
       <c r="H58" s="107"/>
-      <c r="I58" s="23"/>
     </row>
     <row r="59" spans="1:13">
       <c r="B59" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="F59" s="23"/>
+      <c r="H59" s="107"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="B60" s="26" t="s">
         <v>571</v>
       </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="23"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="B60" s="21" t="s">
+      <c r="F60" s="23"/>
+      <c r="H60" s="107"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="B61" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="23"/>
-    </row>
-    <row r="61" spans="1:13">
       <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
       <c r="H61" s="107"/>
-      <c r="I61" s="23"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="B62" s="26" t="s">
+      <c r="F62" s="23"/>
+      <c r="H62" s="107"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="B63" s="26" t="s">
         <v>570</v>
       </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="107"/>
-      <c r="I62" s="23"/>
-    </row>
-    <row r="63" spans="1:13">
       <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
       <c r="H63" s="107"/>
-      <c r="I63" s="23"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="B64" s="98" t="s">
+      <c r="F64" s="23"/>
+      <c r="H64" s="107"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="98" t="s">
         <v>388</v>
       </c>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="23"/>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="98" t="s">
+      <c r="F65" s="23"/>
+      <c r="H65" s="107"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="98" t="s">
         <v>389</v>
       </c>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="23"/>
-    </row>
-    <row r="66" spans="2:9">
       <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
       <c r="H66" s="107"/>
-      <c r="I66" s="23"/>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="98" t="s">
+    </row>
+    <row r="67" spans="2:8">
+      <c r="F67" s="23"/>
+      <c r="H67" s="107"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="98" t="s">
         <v>574</v>
       </c>
-      <c r="C67" s="98">
+      <c r="C68" s="98">
         <v>1</v>
       </c>
-      <c r="D67" s="98" t="s">
+      <c r="D68" s="98" t="s">
         <v>882</v>
       </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="107"/>
-      <c r="I67" s="23"/>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="C68" s="98">
+      <c r="F68" s="23"/>
+      <c r="H68" s="107"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="C69" s="98">
         <v>2</v>
       </c>
-      <c r="D68" s="98" t="s">
+      <c r="D69" s="98" t="s">
         <v>881</v>
       </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="107"/>
-      <c r="I68" s="23"/>
-    </row>
-    <row r="69" spans="2:9">
-      <c r="D69" s="98" t="s">
-        <v>999</v>
-      </c>
       <c r="F69" s="23"/>
-      <c r="G69" s="27"/>
       <c r="H69" s="107"/>
-      <c r="I69" s="23"/>
-    </row>
-    <row r="70" spans="2:9">
+    </row>
+    <row r="70" spans="2:8">
       <c r="D70" s="98" t="s">
-        <v>1000</v>
+        <v>969</v>
       </c>
       <c r="F70" s="23"/>
-      <c r="G70" s="27"/>
       <c r="H70" s="107"/>
-      <c r="I70" s="23"/>
-    </row>
-    <row r="71" spans="2:9">
+    </row>
+    <row r="71" spans="2:8">
       <c r="D71" s="98" t="s">
-        <v>1001</v>
+        <v>970</v>
       </c>
       <c r="F71" s="23"/>
-      <c r="G71" s="27"/>
       <c r="H71" s="107"/>
-      <c r="I71" s="23"/>
-    </row>
-    <row r="72" spans="2:9">
+    </row>
+    <row r="72" spans="2:8">
       <c r="D72" s="98" t="s">
-        <v>1002</v>
+        <v>971</v>
       </c>
       <c r="F72" s="23"/>
-      <c r="G72" s="27"/>
       <c r="H72" s="107"/>
-      <c r="I72" s="23"/>
-    </row>
-    <row r="73" spans="2:9">
+    </row>
+    <row r="73" spans="2:8">
       <c r="D73" s="98" t="s">
-        <v>1003</v>
+        <v>972</v>
       </c>
       <c r="F73" s="23"/>
-      <c r="G73" s="27"/>
       <c r="H73" s="107"/>
-      <c r="I73" s="23"/>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="C74" s="98">
+    </row>
+    <row r="74" spans="2:8">
+      <c r="D74" s="98" t="s">
+        <v>973</v>
+      </c>
+      <c r="F74" s="23"/>
+      <c r="H74" s="107"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="C75" s="98">
         <v>3</v>
       </c>
-      <c r="D74" s="98" t="s">
+      <c r="D75" s="98" t="s">
         <v>883</v>
       </c>
-      <c r="F74" s="23"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="107"/>
-      <c r="I74" s="23"/>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="D75" s="98" t="s">
+      <c r="F75" s="23"/>
+      <c r="H75" s="107"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="D76" s="98" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
-      <c r="D76" s="98" t="s">
+    <row r="77" spans="2:8">
+      <c r="D77" s="98" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
-      <c r="D77" s="98" t="s">
+    <row r="78" spans="2:8">
+      <c r="D78" s="98" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
-      <c r="D78" s="98" t="s">
+    <row r="79" spans="2:8">
+      <c r="D79" s="98" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
-      <c r="D79" s="98" t="s">
+    <row r="80" spans="2:8">
+      <c r="D80" s="98" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="80" spans="2:9">
-      <c r="C80" s="98">
+    <row r="81" spans="2:9">
+      <c r="C81" s="98">
         <v>4</v>
       </c>
-      <c r="D80" s="98" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9">
       <c r="D81" s="98" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="107"/>
-      <c r="I81" s="23"/>
+        <v>974</v>
+      </c>
     </row>
     <row r="82" spans="2:9">
-      <c r="B82" s="98" t="s">
+      <c r="D82" s="98" t="s">
+        <v>977</v>
+      </c>
+      <c r="F82" s="23"/>
+      <c r="H82" s="107"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="98" t="s">
         <v>575</v>
       </c>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="107"/>
-      <c r="I82" s="23"/>
-    </row>
-    <row r="83" spans="2:9">
       <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
       <c r="H83" s="107"/>
-      <c r="I83" s="36"/>
-    </row>
-    <row r="84" spans="2:9" ht="32">
-      <c r="B84" s="28" t="s">
+    </row>
+    <row r="84" spans="2:9">
+      <c r="F84" s="23"/>
+      <c r="H84" s="107"/>
+      <c r="I84" s="119"/>
+    </row>
+    <row r="85" spans="2:9" ht="32">
+      <c r="B85" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C85" s="28" t="s">
         <v>577</v>
       </c>
-      <c r="D84" s="28" t="s">
+      <c r="D85" s="28" t="s">
         <v>578</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E85" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="F84" s="29" t="s">
+      <c r="F85" s="29" t="s">
         <v>580</v>
       </c>
-      <c r="G84" s="37" t="s">
+      <c r="G85" s="72" t="s">
         <v>581</v>
       </c>
-      <c r="H84" s="28" t="s">
+      <c r="H85" s="28" t="s">
         <v>582</v>
       </c>
-      <c r="I84" s="28" t="s">
+      <c r="I85" s="72" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="103"/>
-      <c r="C85" s="103"/>
-      <c r="D85" s="103" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="103"/>
-      <c r="F85" s="103" t="s">
-        <v>754</v>
-      </c>
-      <c r="G85" s="103" t="s">
-        <v>38</v>
-      </c>
-      <c r="H85" s="103" t="s">
-        <v>725</v>
-      </c>
-      <c r="I85" s="103"/>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" s="103"/>
       <c r="C86" s="103"/>
       <c r="D86" s="103" t="s">
-        <v>825</v>
+        <v>12</v>
       </c>
       <c r="E86" s="103"/>
       <c r="F86" s="103" t="s">
         <v>754</v>
       </c>
-      <c r="G86" s="103" t="s">
-        <v>826</v>
+      <c r="G86" s="56" t="s">
+        <v>38</v>
       </c>
       <c r="H86" s="103" t="s">
         <v>725</v>
       </c>
-      <c r="I86" s="103" t="s">
-        <v>790</v>
-      </c>
+      <c r="I86" s="56"/>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" s="103"/>
       <c r="C87" s="103"/>
       <c r="D87" s="103" t="s">
-        <v>803</v>
+        <v>825</v>
       </c>
       <c r="E87" s="103"/>
       <c r="F87" s="103" t="s">
-        <v>804</v>
-      </c>
-      <c r="G87" s="103" t="s">
-        <v>38</v>
+        <v>754</v>
+      </c>
+      <c r="G87" s="56" t="s">
+        <v>826</v>
       </c>
       <c r="H87" s="103" t="s">
         <v>725</v>
       </c>
-      <c r="I87" s="103"/>
+      <c r="I87" s="56" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" s="103"/>
       <c r="C88" s="103"/>
       <c r="D88" s="103" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="E88" s="103"/>
       <c r="F88" s="103" t="s">
-        <v>754</v>
-      </c>
-      <c r="G88" s="103" t="s">
+        <v>804</v>
+      </c>
+      <c r="G88" s="56" t="s">
         <v>38</v>
       </c>
       <c r="H88" s="103" t="s">
         <v>725</v>
       </c>
-      <c r="I88" s="103"/>
+      <c r="I88" s="56"/>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" s="103"/>
       <c r="C89" s="103"/>
       <c r="D89" s="103" t="s">
-        <v>201</v>
+        <v>822</v>
       </c>
       <c r="E89" s="103"/>
-      <c r="F89" s="110" t="s">
-        <v>798</v>
-      </c>
-      <c r="G89" s="103" t="s">
+      <c r="F89" s="103" t="s">
+        <v>754</v>
+      </c>
+      <c r="G89" s="56" t="s">
         <v>38</v>
       </c>
       <c r="H89" s="103" t="s">
         <v>725</v>
       </c>
-      <c r="I89" s="103"/>
+      <c r="I89" s="56"/>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" s="103"/>
       <c r="C90" s="103"/>
       <c r="D90" s="103" t="s">
-        <v>720</v>
+        <v>201</v>
       </c>
       <c r="E90" s="103"/>
       <c r="F90" s="110" t="s">
-        <v>801</v>
-      </c>
-      <c r="G90" s="103" t="s">
-        <v>70</v>
+        <v>798</v>
+      </c>
+      <c r="G90" s="56" t="s">
+        <v>38</v>
       </c>
       <c r="H90" s="103" t="s">
         <v>725</v>
       </c>
-      <c r="I90" s="103"/>
+      <c r="I90" s="56"/>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" s="103"/>
       <c r="C91" s="103"/>
       <c r="D91" s="103" t="s">
-        <v>895</v>
+        <v>720</v>
       </c>
       <c r="E91" s="103"/>
       <c r="F91" s="110" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G91" s="103" t="s">
-        <v>271</v>
+        <v>801</v>
+      </c>
+      <c r="G91" s="56" t="s">
+        <v>70</v>
       </c>
       <c r="H91" s="103" t="s">
-        <v>1021</v>
-      </c>
-      <c r="I91" s="103" t="s">
-        <v>797</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="I91" s="56"/>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="103"/>
       <c r="C92" s="103"/>
       <c r="D92" s="103" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E92" s="103"/>
-      <c r="F92" s="77"/>
-      <c r="G92" s="103" t="s">
+      <c r="F92" s="110" t="s">
+        <v>986</v>
+      </c>
+      <c r="G92" s="56" t="s">
         <v>271</v>
       </c>
       <c r="H92" s="103" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I92" s="103" t="s">
-        <v>1019</v>
+        <v>989</v>
+      </c>
+      <c r="I92" s="56" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="103"/>
       <c r="C93" s="103"/>
       <c r="D93" s="103" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E93" s="103"/>
-      <c r="F93" s="103" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G93" s="103" t="s">
-        <v>325</v>
+      <c r="F93" s="77"/>
+      <c r="G93" s="56" t="s">
+        <v>271</v>
       </c>
       <c r="H93" s="103" t="s">
-        <v>1021</v>
-      </c>
-      <c r="I93" s="103"/>
+        <v>988</v>
+      </c>
+      <c r="I93" s="56" t="s">
+        <v>987</v>
+      </c>
     </row>
     <row r="94" spans="2:9">
       <c r="B94" s="103"/>
       <c r="C94" s="103"/>
       <c r="D94" s="103" t="s">
-        <v>1010</v>
+        <v>893</v>
       </c>
       <c r="E94" s="103"/>
-      <c r="F94" s="110" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G94" s="103" t="s">
-        <v>957</v>
-      </c>
-      <c r="H94" s="103"/>
-      <c r="I94" s="103"/>
+      <c r="F94" s="103" t="s">
+        <v>979</v>
+      </c>
+      <c r="G94" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="H94" s="103" t="s">
+        <v>989</v>
+      </c>
+      <c r="I94" s="56"/>
     </row>
     <row r="95" spans="2:9">
       <c r="B95" s="103"/>
       <c r="C95" s="103"/>
       <c r="D95" s="103" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="E95" s="103"/>
       <c r="F95" s="110" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G95" s="103" t="s">
-        <v>976</v>
-      </c>
-      <c r="H95" s="103"/>
-      <c r="I95" s="103"/>
+        <v>979</v>
+      </c>
+      <c r="G95" s="56" t="s">
+        <v>937</v>
+      </c>
+      <c r="H95" s="103" t="s">
+        <v>989</v>
+      </c>
+      <c r="I95" s="56"/>
     </row>
     <row r="96" spans="2:9">
       <c r="B96" s="103"/>
       <c r="C96" s="103"/>
       <c r="D96" s="103" t="s">
-        <v>1012</v>
+        <v>950</v>
       </c>
       <c r="E96" s="103"/>
       <c r="F96" s="110" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G96" s="103" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H96" s="103"/>
-      <c r="I96" s="103"/>
+        <v>990</v>
+      </c>
+      <c r="G96" s="56" t="s">
+        <v>951</v>
+      </c>
+      <c r="H96" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="I96" s="56" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="97" spans="2:9">
-      <c r="B97" s="56"/>
+      <c r="B97" s="103"/>
       <c r="C97" s="103"/>
       <c r="D97" s="103" t="s">
-        <v>1016</v>
+        <v>980</v>
       </c>
       <c r="E97" s="103"/>
-      <c r="F97" s="103" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G97" s="103" t="s">
-        <v>61</v>
-      </c>
-      <c r="H97" s="103"/>
-      <c r="I97" s="103"/>
+      <c r="F97" s="110" t="s">
+        <v>982</v>
+      </c>
+      <c r="G97" s="56" t="s">
+        <v>981</v>
+      </c>
+      <c r="H97" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="I97" s="56" t="s">
+        <v>1043</v>
+      </c>
     </row>
     <row r="98" spans="2:9">
-      <c r="B98" s="103"/>
+      <c r="B98" s="56"/>
       <c r="C98" s="103"/>
       <c r="D98" s="103" t="s">
-        <v>896</v>
+        <v>984</v>
       </c>
       <c r="E98" s="103"/>
       <c r="F98" s="103" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G98" s="103" t="s">
-        <v>897</v>
+        <v>983</v>
+      </c>
+      <c r="G98" s="56" t="s">
+        <v>61</v>
       </c>
       <c r="H98" s="103"/>
-      <c r="I98" s="103"/>
+      <c r="I98" s="56" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="99" spans="2:9">
       <c r="B99" s="103"/>
       <c r="C99" s="103"/>
-      <c r="D99" s="103"/>
+      <c r="D99" s="103" t="s">
+        <v>896</v>
+      </c>
       <c r="E99" s="103"/>
-      <c r="F99" s="110"/>
-      <c r="G99" s="103"/>
-      <c r="H99" s="103"/>
-      <c r="I99" s="103"/>
+      <c r="F99" s="103" t="s">
+        <v>985</v>
+      </c>
+      <c r="G99" s="56" t="s">
+        <v>897</v>
+      </c>
+      <c r="H99" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="I99" s="56" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="103"/>
@@ -20779,9 +21251,9 @@
       <c r="D100" s="103"/>
       <c r="E100" s="103"/>
       <c r="F100" s="110"/>
-      <c r="G100" s="103"/>
+      <c r="G100" s="56"/>
       <c r="H100" s="103"/>
-      <c r="I100" s="103"/>
+      <c r="I100" s="56"/>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="103"/>
@@ -20789,9 +21261,9 @@
       <c r="D101" s="103"/>
       <c r="E101" s="103"/>
       <c r="F101" s="110"/>
-      <c r="G101" s="103"/>
+      <c r="G101" s="56"/>
       <c r="H101" s="103"/>
-      <c r="I101" s="103"/>
+      <c r="I101" s="56"/>
     </row>
     <row r="102" spans="2:9">
       <c r="B102" s="103"/>
@@ -20799,44 +21271,54 @@
       <c r="D102" s="103"/>
       <c r="E102" s="103"/>
       <c r="F102" s="110"/>
-      <c r="G102" s="103"/>
+      <c r="G102" s="56"/>
       <c r="H102" s="103"/>
-      <c r="I102" s="103"/>
+      <c r="I102" s="56"/>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="B103" s="103"/>
+      <c r="C103" s="103"/>
+      <c r="D103" s="103"/>
+      <c r="E103" s="103"/>
+      <c r="F103" s="110"/>
+      <c r="G103" s="56"/>
+      <c r="H103" s="103"/>
+      <c r="I103" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="B62 A59:A66 B59:B60 C59:XFD66 F77:XFD80 E75:XFD76 E81:XFD81 B64:B66 A67:XFD74 A75:D81 A53:XFD58 A36:A42 C21:E23 G36:XFD52 A24:XFD35 A1:B23 C1:E19 F1:XFD23 A82:XFD1048576">
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+  <conditionalFormatting sqref="B63 A60:A67 B60:B61 C60:XFD67 F78:XFD81 E76:XFD77 E82:XFD82 B65:B67 A68:XFD75 A76:D82 A54:XFD59 C21:E23 A38:F40 A41:B43 C41:F42 H28:XFD29 F13:XFD23 C13:E19 A13:B23 A31:XFD37 A28:F29 A83:XFD93 A94:G94 I94:XFD94 A95:XFD1048576 A30:L30 N30:XFD30 A24:XFD27 A1:XFD12 H5:H20 G38:XFD53">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:F42">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+  <conditionalFormatting sqref="A44:F44 A45:E51 A52:B53 D52:F53">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:F43 A44:E50 A51:B52 D51:F52">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+  <conditionalFormatting sqref="F45">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+  <conditionalFormatting sqref="F46:F48">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:F47">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="C52:C53">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51:C52">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+  <conditionalFormatting sqref="F49:F51">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48:F50">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="H94">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20849,7 +21331,7 @@
           <x14:formula1>
             <xm:f>[1]附录!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C51:C52 F44:F47</xm:sqref>
+          <xm:sqref>C52:C53 F45:F48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -21574,12 +22056,12 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A45:XFD1048576 B40 A37:A44 B37:B38 C37:XFD44 A1:XFD36">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:B44">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21892,7 +22374,7 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C26 E2:E24 G2:G5 I1:I25">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
